--- a/full/sliding_window_results_window_6.xlsx
+++ b/full/sliding_window_results_window_6.xlsx
@@ -468,13 +468,13 @@
         <v>30.95</v>
       </c>
       <c r="C2" t="n">
-        <v>31.33259213869763</v>
+        <v>31.3635460295581</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3825921386976319</v>
+        <v>0.4135460295581019</v>
       </c>
       <c r="E2" t="n">
-        <v>0.146376744593228</v>
+        <v>0.1710203185632705</v>
       </c>
     </row>
     <row r="3">
@@ -485,13 +485,13 @@
         <v>31.38</v>
       </c>
       <c r="C3" t="n">
-        <v>32.21248240817024</v>
+        <v>32.23309805388581</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8324824081702396</v>
+        <v>0.8530980538858124</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6930269599129213</v>
+        <v>0.7277762895437605</v>
       </c>
     </row>
     <row r="4">
@@ -502,13 +502,13 @@
         <v>32.28</v>
       </c>
       <c r="C4" t="n">
-        <v>33.80818672864122</v>
+        <v>33.68138614192443</v>
       </c>
       <c r="D4" t="n">
-        <v>1.528186728641217</v>
+        <v>1.401386141924434</v>
       </c>
       <c r="E4" t="n">
-        <v>2.335354677595143</v>
+        <v>1.963883118777849</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         <v>33.1</v>
       </c>
       <c r="C5" t="n">
-        <v>34.43473903574173</v>
+        <v>34.43315132772136</v>
       </c>
       <c r="D5" t="n">
-        <v>1.334739035741727</v>
+        <v>1.33315132772136</v>
       </c>
       <c r="E5" t="n">
-        <v>1.781528293532755</v>
+        <v>1.777292462605226</v>
       </c>
     </row>
     <row r="6">
@@ -536,13 +536,13 @@
         <v>34.4</v>
       </c>
       <c r="C6" t="n">
-        <v>35.95390954435534</v>
+        <v>35.9204999119278</v>
       </c>
       <c r="D6" t="n">
-        <v>1.553909544355342</v>
+        <v>1.5204999119278</v>
       </c>
       <c r="E6" t="n">
-        <v>2.414634872038627</v>
+        <v>2.311919982172447</v>
       </c>
     </row>
     <row r="7">
@@ -553,13 +553,13 @@
         <v>36.3</v>
       </c>
       <c r="C7" t="n">
-        <v>38.04993181224606</v>
+        <v>37.8569832495488</v>
       </c>
       <c r="D7" t="n">
-        <v>1.749931812246061</v>
+        <v>1.5569832495488</v>
       </c>
       <c r="E7" t="n">
-        <v>3.062261347510782</v>
+        <v>2.424196839375541</v>
       </c>
     </row>
     <row r="8">
@@ -570,13 +570,13 @@
         <v>38.5</v>
       </c>
       <c r="C8" t="n">
-        <v>40.07894029154254</v>
+        <v>39.89464766573602</v>
       </c>
       <c r="D8" t="n">
-        <v>1.578940291542544</v>
+        <v>1.394647665736017</v>
       </c>
       <c r="E8" t="n">
-        <v>2.493052444256454</v>
+        <v>1.94504211154292</v>
       </c>
     </row>
     <row r="9">
@@ -587,13 +587,13 @@
         <v>40.1</v>
       </c>
       <c r="C9" t="n">
-        <v>41.59992532500047</v>
+        <v>41.49043455706326</v>
       </c>
       <c r="D9" t="n">
-        <v>1.499925325000468</v>
+        <v>1.390434557063259</v>
       </c>
       <c r="E9" t="n">
-        <v>2.249775980577761</v>
+        <v>1.9333082574757</v>
       </c>
     </row>
     <row r="10">
@@ -604,13 +604,13 @@
         <v>41.5</v>
       </c>
       <c r="C10" t="n">
-        <v>43.11572427005341</v>
+        <v>42.94049369078291</v>
       </c>
       <c r="D10" t="n">
-        <v>1.615724270053406</v>
+        <v>1.440493690782908</v>
       </c>
       <c r="E10" t="n">
-        <v>2.61056491683961</v>
+        <v>2.075022073185365</v>
       </c>
     </row>
     <row r="11">
@@ -621,13 +621,13 @@
         <v>43.7</v>
       </c>
       <c r="C11" t="n">
-        <v>46.1161940533481</v>
+        <v>46.03052998151167</v>
       </c>
       <c r="D11" t="n">
-        <v>2.416194053348093</v>
+        <v>2.330529981511667</v>
       </c>
       <c r="E11" t="n">
-        <v>5.837993703434687</v>
+        <v>5.43136999472477</v>
       </c>
     </row>
     <row r="12">
@@ -638,13 +638,13 @@
         <v>48.1</v>
       </c>
       <c r="C12" t="n">
-        <v>49.47825507144016</v>
+        <v>49.49247514132498</v>
       </c>
       <c r="D12" t="n">
-        <v>1.378255071440158</v>
+        <v>1.392475141324979</v>
       </c>
       <c r="E12" t="n">
-        <v>1.899587041950515</v>
+        <v>1.938987019208021</v>
       </c>
     </row>
     <row r="13">
@@ -655,13 +655,13 @@
         <v>53</v>
       </c>
       <c r="C13" t="n">
-        <v>55.90447346198604</v>
+        <v>55.69608408196958</v>
       </c>
       <c r="D13" t="n">
-        <v>2.904473461986044</v>
+        <v>2.69608408196958</v>
       </c>
       <c r="E13" t="n">
-        <v>8.435966091381193</v>
+        <v>7.268869377049755</v>
       </c>
     </row>
     <row r="14">
@@ -672,13 +672,13 @@
         <v>56.1</v>
       </c>
       <c r="C14" t="n">
-        <v>57.91533496600617</v>
+        <v>57.88148798593063</v>
       </c>
       <c r="D14" t="n">
-        <v>1.815334966006169</v>
+        <v>1.781487985930632</v>
       </c>
       <c r="E14" t="n">
-        <v>3.29544103880462</v>
+        <v>3.173699444015178</v>
       </c>
     </row>
     <row r="15">
@@ -689,13 +689,13 @@
         <v>60</v>
       </c>
       <c r="C15" t="n">
-        <v>62.2258137483567</v>
+        <v>62.14405064944243</v>
       </c>
       <c r="D15" t="n">
-        <v>2.2258137483567</v>
+        <v>2.144050649442427</v>
       </c>
       <c r="E15" t="n">
-        <v>4.954246842373702</v>
+        <v>4.596953187374493</v>
       </c>
     </row>
     <row r="16">
@@ -706,13 +706,13 @@
         <v>63.9</v>
       </c>
       <c r="C16" t="n">
-        <v>64.96159085292251</v>
+        <v>64.95070010911766</v>
       </c>
       <c r="D16" t="n">
-        <v>1.061590852922514</v>
+        <v>1.050700109117663</v>
       </c>
       <c r="E16" t="n">
-        <v>1.12697513900875</v>
+        <v>1.10397071929987</v>
       </c>
     </row>
     <row r="17">
@@ -723,13 +723,13 @@
         <v>70.59999999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>73.22912108950605</v>
+        <v>73.19192505981502</v>
       </c>
       <c r="D17" t="n">
-        <v>2.629121089506057</v>
+        <v>2.591925059815026</v>
       </c>
       <c r="E17" t="n">
-        <v>6.912277703285517</v>
+        <v>6.718075515697124</v>
       </c>
     </row>
     <row r="18">
@@ -740,13 +740,13 @@
         <v>80.90000000000001</v>
       </c>
       <c r="C18" t="n">
-        <v>84.89194226230633</v>
+        <v>84.7227868698412</v>
       </c>
       <c r="D18" t="n">
-        <v>3.991942262306324</v>
+        <v>3.822786869841195</v>
       </c>
       <c r="E18" t="n">
-        <v>15.93560302558733</v>
+        <v>14.61369945223024</v>
       </c>
     </row>
     <row r="19">
@@ -757,13 +757,13 @@
         <v>89.09999999999999</v>
       </c>
       <c r="C19" t="n">
-        <v>92.4661510291954</v>
+        <v>92.33986939910324</v>
       </c>
       <c r="D19" t="n">
-        <v>3.366151029195407</v>
+        <v>3.239869399103242</v>
       </c>
       <c r="E19" t="n">
-        <v>11.3309727513533</v>
+        <v>10.4967537232456</v>
       </c>
     </row>
     <row r="20">
@@ -774,13 +774,13 @@
         <v>95</v>
       </c>
       <c r="C20" t="n">
-        <v>97.42502446502499</v>
+        <v>97.35321780635667</v>
       </c>
       <c r="D20" t="n">
-        <v>2.42502446502499</v>
+        <v>2.353217806356668</v>
       </c>
       <c r="E20" t="n">
-        <v>5.880743655969737</v>
+        <v>5.537634044154086</v>
       </c>
     </row>
     <row r="21">
@@ -791,13 +791,13 @@
         <v>98.8</v>
       </c>
       <c r="C21" t="n">
-        <v>101.0118900626118</v>
+        <v>100.9869744762491</v>
       </c>
       <c r="D21" t="n">
-        <v>2.211890062611801</v>
+        <v>2.186974476249091</v>
       </c>
       <c r="E21" t="n">
-        <v>4.892457649080835</v>
+        <v>4.782857359764986</v>
       </c>
     </row>
     <row r="22">
@@ -808,11 +808,11 @@
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="n">
-        <v>38.5022226171529</v>
+        <v>36.89434218881066</v>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="n">
-        <v>88.28884087908747</v>
+        <v>80.99233129000621</v>
       </c>
     </row>
     <row r="23">
@@ -825,7 +825,7 @@
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="n">
-        <v>4.414442043954374</v>
+        <v>4.04961656450031</v>
       </c>
     </row>
   </sheetData>

--- a/full/sliding_window_results_window_6.xlsx
+++ b/full/sliding_window_results_window_6.xlsx
@@ -468,13 +468,13 @@
         <v>29.55</v>
       </c>
       <c r="C2" t="n">
-        <v>29.84591448890856</v>
+        <v>28.18864039733221</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2959144889085614</v>
+        <v>-1.361359602667786</v>
       </c>
       <c r="E2" t="n">
-        <v>0.08756538474601512</v>
+        <v>1.853299967775792</v>
       </c>
     </row>
     <row r="3">
@@ -485,13 +485,13 @@
         <v>29.75</v>
       </c>
       <c r="C3" t="n">
-        <v>29.63832611849096</v>
+        <v>28.95885016758037</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.1116738815090415</v>
+        <v>-0.7911498324196309</v>
       </c>
       <c r="E3" t="n">
-        <v>0.01247105581129543</v>
+        <v>0.6259180573376101</v>
       </c>
     </row>
     <row r="4">
@@ -502,13 +502,13 @@
         <v>29.84</v>
       </c>
       <c r="C4" t="n">
-        <v>30.53792944522699</v>
+        <v>29.78415812729504</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6979294452269933</v>
+        <v>-0.05584187270496344</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4871055105148586</v>
+        <v>0.003118314747197341</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         <v>29.81</v>
       </c>
       <c r="C5" t="n">
-        <v>30.40112432916776</v>
+        <v>29.99045562814181</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5911243291677657</v>
+        <v>0.1804556281418073</v>
       </c>
       <c r="E5" t="n">
-        <v>0.349427972534041</v>
+        <v>0.03256423372805423</v>
       </c>
     </row>
     <row r="6">
@@ -536,13 +536,13 @@
         <v>29.92</v>
       </c>
       <c r="C6" t="n">
-        <v>30.22519927145229</v>
+        <v>30.35826132273617</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3051992714522846</v>
+        <v>0.4382613227361638</v>
       </c>
       <c r="E6" t="n">
-        <v>0.09314659529500532</v>
+        <v>0.1920729870064519</v>
       </c>
     </row>
     <row r="7">
@@ -553,13 +553,13 @@
         <v>29.98</v>
       </c>
       <c r="C7" t="n">
-        <v>29.60926616618648</v>
+        <v>29.85874860189055</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.3707338338135209</v>
+        <v>-0.1212513981094503</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1374435755340713</v>
+        <v>0.01470190154349641</v>
       </c>
     </row>
     <row r="8">
@@ -570,13 +570,13 @@
         <v>30.04</v>
       </c>
       <c r="C8" t="n">
-        <v>29.89359573285066</v>
+        <v>29.85435104470843</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.146404267149336</v>
+        <v>-0.1856489552915725</v>
       </c>
       <c r="E8" t="n">
-        <v>0.02143420943953413</v>
+        <v>0.0344655346008523</v>
       </c>
     </row>
     <row r="9">
@@ -587,13 +587,13 @@
         <v>30.21</v>
       </c>
       <c r="C9" t="n">
-        <v>29.4881873502974</v>
+        <v>29.73036037822987</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.7218126497026027</v>
+        <v>-0.4796396217701293</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5210135012706922</v>
+        <v>0.2300541667717927</v>
       </c>
     </row>
     <row r="10">
@@ -604,13 +604,13 @@
         <v>30.22</v>
       </c>
       <c r="C10" t="n">
-        <v>29.87883321989423</v>
+        <v>29.51090517434059</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.3411667801057661</v>
+        <v>-0.7090948256594061</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1163947718477361</v>
+        <v>0.5028154717769435</v>
       </c>
     </row>
     <row r="11">
@@ -621,13 +621,13 @@
         <v>30.38</v>
       </c>
       <c r="C11" t="n">
-        <v>29.73555844411813</v>
+        <v>30.15380271704716</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.6444415558818726</v>
+        <v>-0.2261972829528389</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4153049189474487</v>
+        <v>0.05116521081524667</v>
       </c>
     </row>
     <row r="12">
@@ -638,13 +638,13 @@
         <v>30.44</v>
       </c>
       <c r="C12" t="n">
-        <v>30.40475970552956</v>
+        <v>30.28203954848277</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.03524029447044441</v>
+        <v>-0.1579604515172264</v>
       </c>
       <c r="E12" t="n">
-        <v>0.001241878354363635</v>
+        <v>0.02495150424352603</v>
       </c>
     </row>
     <row r="13">
@@ -655,13 +655,13 @@
         <v>30.48</v>
       </c>
       <c r="C13" t="n">
-        <v>30.33028416551723</v>
+        <v>30.35046963739821</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.1497158344827696</v>
+        <v>-0.1295303626017912</v>
       </c>
       <c r="E13" t="n">
-        <v>0.02241483109487206</v>
+        <v>0.0167781148357515</v>
       </c>
     </row>
     <row r="14">
@@ -672,13 +672,13 @@
         <v>30.69</v>
       </c>
       <c r="C14" t="n">
-        <v>30.55678553735556</v>
+        <v>31.12307585872772</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.1332144626444389</v>
+        <v>0.4330758587277153</v>
       </c>
       <c r="E14" t="n">
-        <v>0.01774609305764661</v>
+        <v>0.187554699412748</v>
       </c>
     </row>
     <row r="15">
@@ -689,13 +689,13 @@
         <v>30.75</v>
       </c>
       <c r="C15" t="n">
-        <v>30.20442464496487</v>
+        <v>30.68490421360424</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.5455753550351297</v>
+        <v>-0.06509578639576219</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2976524680217078</v>
+        <v>0.004237461406482698</v>
       </c>
     </row>
     <row r="16">
@@ -706,13 +706,13 @@
         <v>30.94</v>
       </c>
       <c r="C16" t="n">
-        <v>30.62186542018789</v>
+        <v>31.58908987433221</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.31813457981211</v>
+        <v>0.6490898743322084</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1012096108722278</v>
+        <v>0.4213176649606021</v>
       </c>
     </row>
     <row r="17">
@@ -723,13 +723,13 @@
         <v>30.95</v>
       </c>
       <c r="C17" t="n">
-        <v>30.86473493105069</v>
+        <v>31.07199771477123</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.08526506894930819</v>
+        <v>0.1219977147712328</v>
       </c>
       <c r="E17" t="n">
-        <v>0.007270131982930279</v>
+        <v>0.01488344240940307</v>
       </c>
     </row>
     <row r="18">
@@ -740,13 +740,13 @@
         <v>31.02</v>
       </c>
       <c r="C18" t="n">
-        <v>31.44454446523798</v>
+        <v>31.56260262068523</v>
       </c>
       <c r="D18" t="n">
-        <v>0.4245444652379824</v>
+        <v>0.5426026206852299</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1802380029642044</v>
+        <v>0.2944176039744795</v>
       </c>
     </row>
     <row r="19">
@@ -757,13 +757,13 @@
         <v>31.12</v>
       </c>
       <c r="C19" t="n">
-        <v>31.78832209817197</v>
+        <v>31.76670329381151</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6683220981719664</v>
+        <v>0.6467032938115125</v>
       </c>
       <c r="E19" t="n">
-        <v>0.4466544269049795</v>
+        <v>0.4182251502266595</v>
       </c>
     </row>
     <row r="20">
@@ -774,13 +774,13 @@
         <v>31.28</v>
       </c>
       <c r="C20" t="n">
-        <v>31.88941772239685</v>
+        <v>32.30504896931913</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6094177223968487</v>
+        <v>1.02504896931913</v>
       </c>
       <c r="E20" t="n">
-        <v>0.3713899603713625</v>
+        <v>1.05072538950221</v>
       </c>
     </row>
     <row r="21">
@@ -791,13 +791,13 @@
         <v>31.38</v>
       </c>
       <c r="C21" t="n">
-        <v>31.64352926705801</v>
+        <v>31.81553904917062</v>
       </c>
       <c r="D21" t="n">
-        <v>0.2635292670580078</v>
+        <v>0.4355390491706217</v>
       </c>
       <c r="E21" t="n">
-        <v>0.06944767459613081</v>
+        <v>0.1896942633524492</v>
       </c>
     </row>
     <row r="22">
@@ -808,13 +808,13 @@
         <v>31.58</v>
       </c>
       <c r="C22" t="n">
-        <v>32.00931304406744</v>
+        <v>32.23737190996458</v>
       </c>
       <c r="D22" t="n">
-        <v>0.4293130440674418</v>
+        <v>0.6573719099645814</v>
       </c>
       <c r="E22" t="n">
-        <v>0.1843096898064532</v>
+        <v>0.4321378280104817</v>
       </c>
     </row>
     <row r="23">
@@ -825,13 +825,13 @@
         <v>31.65</v>
       </c>
       <c r="C23" t="n">
-        <v>31.91376816802393</v>
+        <v>31.75823315371839</v>
       </c>
       <c r="D23" t="n">
-        <v>0.2637681680239297</v>
+        <v>0.1082331537183912</v>
       </c>
       <c r="E23" t="n">
-        <v>0.06957364646269999</v>
+        <v>0.01171441556382889</v>
       </c>
     </row>
     <row r="24">
@@ -842,13 +842,13 @@
         <v>31.88</v>
       </c>
       <c r="C24" t="n">
-        <v>32.52880642879173</v>
+        <v>32.75399064025975</v>
       </c>
       <c r="D24" t="n">
-        <v>0.6488064287917332</v>
+        <v>0.8739906402597519</v>
       </c>
       <c r="E24" t="n">
-        <v>0.4209497820414824</v>
+        <v>0.7638596392616511</v>
       </c>
     </row>
     <row r="25">
@@ -859,13 +859,13 @@
         <v>32.28</v>
       </c>
       <c r="C25" t="n">
-        <v>32.30056186036718</v>
+        <v>32.83070033266386</v>
       </c>
       <c r="D25" t="n">
-        <v>0.02056186036718088</v>
+        <v>0.5507003326638582</v>
       </c>
       <c r="E25" t="n">
-        <v>0.000422790101759444</v>
+        <v>0.3032708563960841</v>
       </c>
     </row>
     <row r="26">
@@ -876,13 +876,13 @@
         <v>32.45</v>
       </c>
       <c r="C26" t="n">
-        <v>32.41812911570014</v>
+        <v>32.33298689603137</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.03187088429986318</v>
+        <v>-0.1170131039686311</v>
       </c>
       <c r="E26" t="n">
-        <v>0.001015753266055265</v>
+        <v>0.01369206650037367</v>
       </c>
     </row>
     <row r="27">
@@ -893,13 +893,13 @@
         <v>32.85</v>
       </c>
       <c r="C27" t="n">
-        <v>32.68084162751008</v>
+        <v>33.79205876010548</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.1691583724899246</v>
+        <v>0.942058760105482</v>
       </c>
       <c r="E27" t="n">
-        <v>0.02861455498344008</v>
+        <v>0.8874747074914779</v>
       </c>
     </row>
     <row r="28">
@@ -910,13 +910,13 @@
         <v>32.9</v>
       </c>
       <c r="C28" t="n">
-        <v>32.83312738104019</v>
+        <v>32.61835933590149</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.06687261895981322</v>
+        <v>-0.2816406640985107</v>
       </c>
       <c r="E28" t="n">
-        <v>0.004471947166544371</v>
+        <v>0.07932146367385015</v>
       </c>
     </row>
     <row r="29">
@@ -927,13 +927,13 @@
         <v>33.1</v>
       </c>
       <c r="C29" t="n">
-        <v>32.90029903122721</v>
+        <v>32.86700716693471</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.1997009687727882</v>
+        <v>-0.2329928330652891</v>
       </c>
       <c r="E29" t="n">
-        <v>0.03988047692879013</v>
+        <v>0.05428566025978965</v>
       </c>
     </row>
     <row r="30">
@@ -944,13 +944,13 @@
         <v>33.4</v>
       </c>
       <c r="C30" t="n">
-        <v>33.80975482240257</v>
+        <v>33.44630553289844</v>
       </c>
       <c r="D30" t="n">
-        <v>0.4097548224025687</v>
+        <v>0.04630553289844386</v>
       </c>
       <c r="E30" t="n">
-        <v>0.1678990144821606</v>
+        <v>0.002144202377008866</v>
       </c>
     </row>
     <row r="31">
@@ -961,13 +961,13 @@
         <v>33.7</v>
       </c>
       <c r="C31" t="n">
-        <v>33.74002028657529</v>
+        <v>33.75654617254365</v>
       </c>
       <c r="D31" t="n">
-        <v>0.04002028657528456</v>
+        <v>0.0565461725436478</v>
       </c>
       <c r="E31" t="n">
-        <v>0.001601623337567902</v>
+        <v>0.003197469629335988</v>
       </c>
     </row>
     <row r="32">
@@ -978,13 +978,13 @@
         <v>34.1</v>
       </c>
       <c r="C32" t="n">
-        <v>33.88943368249295</v>
+        <v>34.43167847588582</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.2105663175070518</v>
+        <v>0.3316784758858162</v>
       </c>
       <c r="E32" t="n">
-        <v>0.04433817406848055</v>
+        <v>0.110010611365938</v>
       </c>
     </row>
     <row r="33">
@@ -995,13 +995,13 @@
         <v>34.4</v>
       </c>
       <c r="C33" t="n">
-        <v>34.09448789097654</v>
+        <v>34.38318031266855</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.3055121090234607</v>
+        <v>-0.01681968733144856</v>
       </c>
       <c r="E33" t="n">
-        <v>0.09333764875996295</v>
+        <v>0.0002829018819276913</v>
       </c>
     </row>
     <row r="34">
@@ -1012,13 +1012,13 @@
         <v>34.9</v>
       </c>
       <c r="C34" t="n">
-        <v>34.69025297020666</v>
+        <v>35.06138637746199</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.2097470297933413</v>
+        <v>0.1613863774619944</v>
       </c>
       <c r="E34" t="n">
-        <v>0.04399381650712878</v>
+        <v>0.02604556283030532</v>
       </c>
     </row>
     <row r="35">
@@ -1029,13 +1029,13 @@
         <v>35.3</v>
       </c>
       <c r="C35" t="n">
-        <v>35.80560405672431</v>
+        <v>35.05836712050998</v>
       </c>
       <c r="D35" t="n">
-        <v>0.5056040567243087</v>
+        <v>-0.2416328794900124</v>
       </c>
       <c r="E35" t="n">
-        <v>0.255635462176078</v>
+        <v>0.05838644845063488</v>
       </c>
     </row>
     <row r="36">
@@ -1046,13 +1046,13 @@
         <v>35.7</v>
       </c>
       <c r="C36" t="n">
-        <v>36.21814574213933</v>
+        <v>35.40922302868204</v>
       </c>
       <c r="D36" t="n">
-        <v>0.5181457421393318</v>
+        <v>-0.2907769713179604</v>
       </c>
       <c r="E36" t="n">
-        <v>0.268475010097119</v>
+        <v>0.08455124704884598</v>
       </c>
     </row>
     <row r="37">
@@ -1063,13 +1063,13 @@
         <v>36.3</v>
       </c>
       <c r="C37" t="n">
-        <v>36.4205231866155</v>
+        <v>35.71178153833066</v>
       </c>
       <c r="D37" t="n">
-        <v>0.1205231866155074</v>
+        <v>-0.5882184616693351</v>
       </c>
       <c r="E37" t="n">
-        <v>0.01452583851195643</v>
+        <v>0.3460009586486391</v>
       </c>
     </row>
     <row r="38">
@@ -1080,13 +1080,13 @@
         <v>36.8</v>
       </c>
       <c r="C38" t="n">
-        <v>37.0028044816777</v>
+        <v>36.07369336509998</v>
       </c>
       <c r="D38" t="n">
-        <v>0.2028044816777026</v>
+        <v>-0.7263066349000198</v>
       </c>
       <c r="E38" t="n">
-        <v>0.04112965778856161</v>
+        <v>0.5275213278997907</v>
       </c>
     </row>
     <row r="39">
@@ -1097,13 +1097,13 @@
         <v>37.3</v>
       </c>
       <c r="C39" t="n">
-        <v>37.05302007412836</v>
+        <v>36.73350179557138</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.246979925871635</v>
+        <v>-0.5664982044286191</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0609990837835583</v>
+        <v>0.3209202156208495</v>
       </c>
     </row>
     <row r="40">
@@ -1114,13 +1114,13 @@
         <v>37.9</v>
       </c>
       <c r="C40" t="n">
-        <v>37.9774682746986</v>
+        <v>38.19747805501498</v>
       </c>
       <c r="D40" t="n">
-        <v>0.07746827469860307</v>
+        <v>0.2974780550149845</v>
       </c>
       <c r="E40" t="n">
-        <v>0.006001333584778224</v>
+        <v>0.08849319321549813</v>
       </c>
     </row>
     <row r="41">
@@ -1131,13 +1131,13 @@
         <v>38.5</v>
       </c>
       <c r="C41" t="n">
-        <v>38.60024867395411</v>
+        <v>38.49130092733579</v>
       </c>
       <c r="D41" t="n">
-        <v>0.1002486739541126</v>
+        <v>-0.008699072664207108</v>
       </c>
       <c r="E41" t="n">
-        <v>0.01004979662955798</v>
+        <v>7.567386521715536e-05</v>
       </c>
     </row>
     <row r="42">
@@ -1148,13 +1148,13 @@
         <v>38.9</v>
       </c>
       <c r="C42" t="n">
-        <v>38.99013988363992</v>
+        <v>38.67093669534257</v>
       </c>
       <c r="D42" t="n">
-        <v>0.09013988363992098</v>
+        <v>-0.22906330465743</v>
       </c>
       <c r="E42" t="n">
-        <v>0.008125198622618493</v>
+        <v>0.05246999754058258</v>
       </c>
     </row>
     <row r="43">
@@ -1165,13 +1165,13 @@
         <v>39.4</v>
       </c>
       <c r="C43" t="n">
-        <v>39.40336668991242</v>
+        <v>38.94763404467231</v>
       </c>
       <c r="D43" t="n">
-        <v>0.003366689912418508</v>
+        <v>-0.4523659553276858</v>
       </c>
       <c r="E43" t="n">
-        <v>1.133460096638054e-05</v>
+        <v>0.2046349575395298</v>
       </c>
     </row>
     <row r="44">
@@ -1182,13 +1182,13 @@
         <v>39.9</v>
       </c>
       <c r="C44" t="n">
-        <v>39.68787633533997</v>
+        <v>39.90801501795154</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.2121236646600266</v>
+        <v>0.008015017951542802</v>
       </c>
       <c r="E44" t="n">
-        <v>0.04499644910879944</v>
+        <v>6.424051276355337e-05</v>
       </c>
     </row>
     <row r="45">
@@ -1199,13 +1199,13 @@
         <v>40.1</v>
       </c>
       <c r="C45" t="n">
-        <v>39.81928179558339</v>
+        <v>40.22409492804579</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.2807182044166083</v>
+        <v>0.1240949280457855</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0788027102908847</v>
+        <v>0.01539955116668868</v>
       </c>
     </row>
     <row r="46">
@@ -1216,13 +1216,13 @@
         <v>40.6</v>
       </c>
       <c r="C46" t="n">
-        <v>39.98454363845202</v>
+        <v>40.43504174471379</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.6154563615479773</v>
+        <v>-0.1649582552862157</v>
       </c>
       <c r="E46" t="n">
-        <v>0.3787865329698746</v>
+        <v>0.0272112259870723</v>
       </c>
     </row>
     <row r="47">
@@ -1233,13 +1233,13 @@
         <v>40.9</v>
       </c>
       <c r="C47" t="n">
-        <v>40.2827639170674</v>
+        <v>40.86343976809695</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.6172360829325996</v>
+        <v>-0.0365602319030458</v>
       </c>
       <c r="E47" t="n">
-        <v>0.3809803820739789</v>
+        <v>0.001336650556804488</v>
       </c>
     </row>
     <row r="48">
@@ -1250,13 +1250,13 @@
         <v>41.2</v>
       </c>
       <c r="C48" t="n">
-        <v>41.1643286542588</v>
+        <v>41.90692275597594</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.03567134574120701</v>
+        <v>0.7069227559759383</v>
       </c>
       <c r="E48" t="n">
-        <v>0.001272444906988727</v>
+        <v>0.4997397829166161</v>
       </c>
     </row>
     <row r="49">
@@ -1267,13 +1267,13 @@
         <v>41.5</v>
       </c>
       <c r="C49" t="n">
-        <v>41.38280972179857</v>
+        <v>41.24317792598858</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.1171902782014342</v>
+        <v>-0.2568220740114242</v>
       </c>
       <c r="E49" t="n">
-        <v>0.01373356130492955</v>
+        <v>0.06595757769952945</v>
       </c>
     </row>
     <row r="50">
@@ -1284,13 +1284,13 @@
         <v>41.8</v>
       </c>
       <c r="C50" t="n">
-        <v>41.97263752137447</v>
+        <v>41.00078940607578</v>
       </c>
       <c r="D50" t="n">
-        <v>0.172637521374476</v>
+        <v>-0.7992105939242151</v>
       </c>
       <c r="E50" t="n">
-        <v>0.02980371378632264</v>
+        <v>0.6387375734406967</v>
       </c>
     </row>
     <row r="51">
@@ -1301,13 +1301,13 @@
         <v>42.2</v>
       </c>
       <c r="C51" t="n">
-        <v>42.53203313404133</v>
+        <v>41.77279972047515</v>
       </c>
       <c r="D51" t="n">
-        <v>0.3320331340413247</v>
+        <v>-0.427200279524854</v>
       </c>
       <c r="E51" t="n">
-        <v>0.1102460021013043</v>
+        <v>0.1825000788261134</v>
       </c>
     </row>
     <row r="52">
@@ -1318,11 +1318,11 @@
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="n">
-        <v>0.8689946148521841</v>
+        <v>-0.3819927554736218</v>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="n">
-        <v>6.560556004411927</v>
+        <v>11.96439922660567</v>
       </c>
     </row>
     <row r="53">
@@ -1335,7 +1335,7 @@
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="n">
-        <v>0.1312111200882385</v>
+        <v>0.2392879845321135</v>
       </c>
     </row>
   </sheetData>

--- a/full/sliding_window_results_window_6.xlsx
+++ b/full/sliding_window_results_window_6.xlsx
@@ -468,13 +468,13 @@
         <v>29.55</v>
       </c>
       <c r="C2" t="n">
-        <v>28.18864039733221</v>
+        <v>28.57952013099779</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.361359602667786</v>
+        <v>-0.9704798690022152</v>
       </c>
       <c r="E2" t="n">
-        <v>1.853299967775792</v>
+        <v>0.9418311761385567</v>
       </c>
     </row>
     <row r="3">
@@ -485,13 +485,13 @@
         <v>29.75</v>
       </c>
       <c r="C3" t="n">
-        <v>28.95885016758037</v>
+        <v>28.67122824177029</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.7911498324196309</v>
+        <v>-1.078771758229706</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6259180573376101</v>
+        <v>1.163748506354012</v>
       </c>
     </row>
     <row r="4">
@@ -502,13 +502,13 @@
         <v>29.84</v>
       </c>
       <c r="C4" t="n">
-        <v>29.78415812729504</v>
+        <v>29.59743991209871</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.05584187270496344</v>
+        <v>-0.2425600879012926</v>
       </c>
       <c r="E4" t="n">
-        <v>0.003118314747197341</v>
+        <v>0.05883539624268278</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         <v>29.81</v>
       </c>
       <c r="C5" t="n">
-        <v>29.99045562814181</v>
+        <v>29.6366908951142</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1804556281418073</v>
+        <v>-0.1733091048857993</v>
       </c>
       <c r="E5" t="n">
-        <v>0.03256423372805423</v>
+        <v>0.03003604583631699</v>
       </c>
     </row>
     <row r="6">
@@ -536,13 +536,13 @@
         <v>29.92</v>
       </c>
       <c r="C6" t="n">
-        <v>30.35826132273617</v>
+        <v>30.58061590239709</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4382613227361638</v>
+        <v>0.6606159023970903</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1920729870064519</v>
+        <v>0.436413370499922</v>
       </c>
     </row>
     <row r="7">
@@ -553,13 +553,13 @@
         <v>29.98</v>
       </c>
       <c r="C7" t="n">
-        <v>29.85874860189055</v>
+        <v>29.82469881156703</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.1212513981094503</v>
+        <v>-0.1553011884329685</v>
       </c>
       <c r="E7" t="n">
-        <v>0.01470190154349641</v>
+        <v>0.02411845912869238</v>
       </c>
     </row>
     <row r="8">
@@ -570,13 +570,13 @@
         <v>30.04</v>
       </c>
       <c r="C8" t="n">
-        <v>29.85435104470843</v>
+        <v>29.86649522397828</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.1856489552915725</v>
+        <v>-0.1735047760217228</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0344655346008523</v>
+        <v>0.03010390730234818</v>
       </c>
     </row>
     <row r="9">
@@ -587,13 +587,13 @@
         <v>30.21</v>
       </c>
       <c r="C9" t="n">
-        <v>29.73036037822987</v>
+        <v>29.5467588182582</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.4796396217701293</v>
+        <v>-0.6632411817418031</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2300541667717927</v>
+        <v>0.4398888651582635</v>
       </c>
     </row>
     <row r="10">
@@ -604,13 +604,13 @@
         <v>30.22</v>
       </c>
       <c r="C10" t="n">
-        <v>29.51090517434059</v>
+        <v>29.47703058454815</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.7090948256594061</v>
+        <v>-0.7429694154518458</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5028154717769435</v>
+        <v>0.5520035522968575</v>
       </c>
     </row>
     <row r="11">
@@ -621,13 +621,13 @@
         <v>30.38</v>
       </c>
       <c r="C11" t="n">
-        <v>30.15380271704716</v>
+        <v>30.10207820522231</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.2261972829528389</v>
+        <v>-0.2779217947776935</v>
       </c>
       <c r="E11" t="n">
-        <v>0.05116521081524667</v>
+        <v>0.07724052401245439</v>
       </c>
     </row>
     <row r="12">
@@ -638,13 +638,13 @@
         <v>30.44</v>
       </c>
       <c r="C12" t="n">
-        <v>30.28203954848277</v>
+        <v>30.29965999457025</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.1579604515172264</v>
+        <v>-0.1403400054297528</v>
       </c>
       <c r="E12" t="n">
-        <v>0.02495150424352603</v>
+        <v>0.01969531712402304</v>
       </c>
     </row>
     <row r="13">
@@ -655,13 +655,13 @@
         <v>30.48</v>
       </c>
       <c r="C13" t="n">
-        <v>30.35046963739821</v>
+        <v>30.38494317377079</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.1295303626017912</v>
+        <v>-0.0950568262292073</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0167781148357515</v>
+        <v>0.009035800212769713</v>
       </c>
     </row>
     <row r="14">
@@ -672,13 +672,13 @@
         <v>30.69</v>
       </c>
       <c r="C14" t="n">
-        <v>31.12307585872772</v>
+        <v>31.00990344420783</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4330758587277153</v>
+        <v>0.3199034442078279</v>
       </c>
       <c r="E14" t="n">
-        <v>0.187554699412748</v>
+        <v>0.1023382136160309</v>
       </c>
     </row>
     <row r="15">
@@ -689,13 +689,13 @@
         <v>30.75</v>
       </c>
       <c r="C15" t="n">
-        <v>30.68490421360424</v>
+        <v>30.85958032394306</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.06509578639576219</v>
+        <v>0.1095803239430566</v>
       </c>
       <c r="E15" t="n">
-        <v>0.004237461406482698</v>
+        <v>0.01200784739546523</v>
       </c>
     </row>
     <row r="16">
@@ -706,13 +706,13 @@
         <v>30.94</v>
       </c>
       <c r="C16" t="n">
-        <v>31.58908987433221</v>
+        <v>31.66238512725587</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6490898743322084</v>
+        <v>0.7223851272558726</v>
       </c>
       <c r="E16" t="n">
-        <v>0.4213176649606021</v>
+        <v>0.5218402720804832</v>
       </c>
     </row>
     <row r="17">
@@ -723,13 +723,13 @@
         <v>30.95</v>
       </c>
       <c r="C17" t="n">
-        <v>31.07199771477123</v>
+        <v>31.16380129947005</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1219977147712328</v>
+        <v>0.2138012994700524</v>
       </c>
       <c r="E17" t="n">
-        <v>0.01488344240940307</v>
+        <v>0.04571099565508305</v>
       </c>
     </row>
     <row r="18">
@@ -740,13 +740,13 @@
         <v>31.02</v>
       </c>
       <c r="C18" t="n">
-        <v>31.56260262068523</v>
+        <v>31.6155670600489</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5426026206852299</v>
+        <v>0.5955670600488965</v>
       </c>
       <c r="E18" t="n">
-        <v>0.2944176039744795</v>
+        <v>0.3547001230152859</v>
       </c>
     </row>
     <row r="19">
@@ -757,13 +757,13 @@
         <v>31.12</v>
       </c>
       <c r="C19" t="n">
-        <v>31.76670329381151</v>
+        <v>31.7453758065703</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6467032938115125</v>
+        <v>0.6253758065703003</v>
       </c>
       <c r="E19" t="n">
-        <v>0.4182251502266595</v>
+        <v>0.3910948994434537</v>
       </c>
     </row>
     <row r="20">
@@ -774,13 +774,13 @@
         <v>31.28</v>
       </c>
       <c r="C20" t="n">
-        <v>32.30504896931913</v>
+        <v>32.14713058137266</v>
       </c>
       <c r="D20" t="n">
-        <v>1.02504896931913</v>
+        <v>0.8671305813726562</v>
       </c>
       <c r="E20" t="n">
-        <v>1.05072538950221</v>
+        <v>0.7519154451516807</v>
       </c>
     </row>
     <row r="21">
@@ -791,13 +791,13 @@
         <v>31.38</v>
       </c>
       <c r="C21" t="n">
-        <v>31.81553904917062</v>
+        <v>32.27928656509563</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4355390491706217</v>
+        <v>0.8992865650956325</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1896942633524492</v>
+        <v>0.8087163261615014</v>
       </c>
     </row>
     <row r="22">
@@ -808,13 +808,13 @@
         <v>31.58</v>
       </c>
       <c r="C22" t="n">
-        <v>32.23737190996458</v>
+        <v>32.65176280025499</v>
       </c>
       <c r="D22" t="n">
-        <v>0.6573719099645814</v>
+        <v>1.071762800254987</v>
       </c>
       <c r="E22" t="n">
-        <v>0.4321378280104817</v>
+        <v>1.148675500010412</v>
       </c>
     </row>
     <row r="23">
@@ -825,13 +825,13 @@
         <v>31.65</v>
       </c>
       <c r="C23" t="n">
-        <v>31.75823315371839</v>
+        <v>31.76681332661224</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1082331537183912</v>
+        <v>0.1168133266122453</v>
       </c>
       <c r="E23" t="n">
-        <v>0.01171441556382889</v>
+        <v>0.0136453532742191</v>
       </c>
     </row>
     <row r="24">
@@ -842,13 +842,13 @@
         <v>31.88</v>
       </c>
       <c r="C24" t="n">
-        <v>32.75399064025975</v>
+        <v>32.6140378892034</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8739906402597519</v>
+        <v>0.7340378892034032</v>
       </c>
       <c r="E24" t="n">
-        <v>0.7638596392616511</v>
+        <v>0.5388116227861877</v>
       </c>
     </row>
     <row r="25">
@@ -859,13 +859,13 @@
         <v>32.28</v>
       </c>
       <c r="C25" t="n">
-        <v>32.83070033266386</v>
+        <v>32.57469371711884</v>
       </c>
       <c r="D25" t="n">
-        <v>0.5507003326638582</v>
+        <v>0.2946937171188395</v>
       </c>
       <c r="E25" t="n">
-        <v>0.3032708563960841</v>
+        <v>0.0868443869093186</v>
       </c>
     </row>
     <row r="26">
@@ -876,13 +876,13 @@
         <v>32.45</v>
       </c>
       <c r="C26" t="n">
-        <v>32.33298689603137</v>
+        <v>32.5088995152526</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.1170131039686311</v>
+        <v>0.05889951525259818</v>
       </c>
       <c r="E26" t="n">
-        <v>0.01369206650037367</v>
+        <v>0.003469152896991045</v>
       </c>
     </row>
     <row r="27">
@@ -893,13 +893,13 @@
         <v>32.85</v>
       </c>
       <c r="C27" t="n">
-        <v>33.79205876010548</v>
+        <v>33.74876072472798</v>
       </c>
       <c r="D27" t="n">
-        <v>0.942058760105482</v>
+        <v>0.8987607247279783</v>
       </c>
       <c r="E27" t="n">
-        <v>0.8874747074914779</v>
+        <v>0.8077708403135608</v>
       </c>
     </row>
     <row r="28">
@@ -910,13 +910,13 @@
         <v>32.9</v>
       </c>
       <c r="C28" t="n">
-        <v>32.61835933590149</v>
+        <v>32.88600813751637</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.2816406640985107</v>
+        <v>-0.01399186248362838</v>
       </c>
       <c r="E28" t="n">
-        <v>0.07932146367385015</v>
+        <v>0.0001957722157607674</v>
       </c>
     </row>
     <row r="29">
@@ -927,13 +927,13 @@
         <v>33.1</v>
       </c>
       <c r="C29" t="n">
-        <v>32.86700716693471</v>
+        <v>33.20449818271961</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.2329928330652891</v>
+        <v>0.1044981827196096</v>
       </c>
       <c r="E29" t="n">
-        <v>0.05428566025978965</v>
+        <v>0.01091987019170092</v>
       </c>
     </row>
     <row r="30">
@@ -944,13 +944,13 @@
         <v>33.4</v>
       </c>
       <c r="C30" t="n">
-        <v>33.44630553289844</v>
+        <v>33.42834121720522</v>
       </c>
       <c r="D30" t="n">
-        <v>0.04630553289844386</v>
+        <v>0.02834121720521665</v>
       </c>
       <c r="E30" t="n">
-        <v>0.002144202377008866</v>
+        <v>0.0008032245926732683</v>
       </c>
     </row>
     <row r="31">
@@ -961,13 +961,13 @@
         <v>33.7</v>
       </c>
       <c r="C31" t="n">
-        <v>33.75654617254365</v>
+        <v>33.89077717024098</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0565461725436478</v>
+        <v>0.1907771702409775</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003197469629335988</v>
+        <v>0.03639592868515491</v>
       </c>
     </row>
     <row r="32">
@@ -978,13 +978,13 @@
         <v>34.1</v>
       </c>
       <c r="C32" t="n">
-        <v>34.43167847588582</v>
+        <v>34.54106070738451</v>
       </c>
       <c r="D32" t="n">
-        <v>0.3316784758858162</v>
+        <v>0.4410607073845085</v>
       </c>
       <c r="E32" t="n">
-        <v>0.110010611365938</v>
+        <v>0.1945345475985231</v>
       </c>
     </row>
     <row r="33">
@@ -995,13 +995,13 @@
         <v>34.4</v>
       </c>
       <c r="C33" t="n">
-        <v>34.38318031266855</v>
+        <v>34.74961127379486</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.01681968733144856</v>
+        <v>0.3496112737948565</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0002829018819276913</v>
+        <v>0.1222280427644621</v>
       </c>
     </row>
     <row r="34">
@@ -1012,13 +1012,13 @@
         <v>34.9</v>
       </c>
       <c r="C34" t="n">
-        <v>35.06138637746199</v>
+        <v>35.1305863906522</v>
       </c>
       <c r="D34" t="n">
-        <v>0.1613863774619944</v>
+        <v>0.2305863906522063</v>
       </c>
       <c r="E34" t="n">
-        <v>0.02604556283030532</v>
+        <v>0.0531700835540119</v>
       </c>
     </row>
     <row r="35">
@@ -1029,13 +1029,13 @@
         <v>35.3</v>
       </c>
       <c r="C35" t="n">
-        <v>35.05836712050998</v>
+        <v>35.22267578619451</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.2416328794900124</v>
+        <v>-0.07732421380548971</v>
       </c>
       <c r="E35" t="n">
-        <v>0.05838644845063488</v>
+        <v>0.005979034040637085</v>
       </c>
     </row>
     <row r="36">
@@ -1046,13 +1046,13 @@
         <v>35.7</v>
       </c>
       <c r="C36" t="n">
-        <v>35.40922302868204</v>
+        <v>35.62207203569853</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.2907769713179604</v>
+        <v>-0.0779279643014732</v>
       </c>
       <c r="E36" t="n">
-        <v>0.08455124704884598</v>
+        <v>0.006072767620171681</v>
       </c>
     </row>
     <row r="37">
@@ -1063,13 +1063,13 @@
         <v>36.3</v>
       </c>
       <c r="C37" t="n">
-        <v>35.71178153833066</v>
+        <v>36.02181200994595</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.5882184616693351</v>
+        <v>-0.2781879900540503</v>
       </c>
       <c r="E37" t="n">
-        <v>0.3460009586486391</v>
+        <v>0.07738855781031237</v>
       </c>
     </row>
     <row r="38">
@@ -1080,13 +1080,13 @@
         <v>36.8</v>
       </c>
       <c r="C38" t="n">
-        <v>36.07369336509998</v>
+        <v>36.27792433010931</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.7263066349000198</v>
+        <v>-0.5220756698906825</v>
       </c>
       <c r="E38" t="n">
-        <v>0.5275213278997907</v>
+        <v>0.2725630050918049</v>
       </c>
     </row>
     <row r="39">
@@ -1097,13 +1097,13 @@
         <v>37.3</v>
       </c>
       <c r="C39" t="n">
-        <v>36.73350179557138</v>
+        <v>37.04261576698061</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.5664982044286191</v>
+        <v>-0.257384233019387</v>
       </c>
       <c r="E39" t="n">
-        <v>0.3209202156208495</v>
+        <v>0.06624664340697808</v>
       </c>
     </row>
     <row r="40">
@@ -1114,13 +1114,13 @@
         <v>37.9</v>
       </c>
       <c r="C40" t="n">
-        <v>38.19747805501498</v>
+        <v>38.30471393433049</v>
       </c>
       <c r="D40" t="n">
-        <v>0.2974780550149845</v>
+        <v>0.4047139343304877</v>
       </c>
       <c r="E40" t="n">
-        <v>0.08849319321549813</v>
+        <v>0.1637933686412623</v>
       </c>
     </row>
     <row r="41">
@@ -1131,13 +1131,13 @@
         <v>38.5</v>
       </c>
       <c r="C41" t="n">
-        <v>38.49130092733579</v>
+        <v>38.64947879644042</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.008699072664207108</v>
+        <v>0.1494787964404196</v>
       </c>
       <c r="E41" t="n">
-        <v>7.567386521715536e-05</v>
+        <v>0.02234391058527641</v>
       </c>
     </row>
     <row r="42">
@@ -1148,13 +1148,13 @@
         <v>38.9</v>
       </c>
       <c r="C42" t="n">
-        <v>38.67093669534257</v>
+        <v>39.06540666585484</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.22906330465743</v>
+        <v>0.1654066658548459</v>
       </c>
       <c r="E42" t="n">
-        <v>0.05246999754058258</v>
+        <v>0.02735936510921664</v>
       </c>
     </row>
     <row r="43">
@@ -1165,13 +1165,13 @@
         <v>39.4</v>
       </c>
       <c r="C43" t="n">
-        <v>38.94763404467231</v>
+        <v>39.21398879234383</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.4523659553276858</v>
+        <v>-0.186011207656172</v>
       </c>
       <c r="E43" t="n">
-        <v>0.2046349575395298</v>
+        <v>0.03460016937370752</v>
       </c>
     </row>
     <row r="44">
@@ -1182,13 +1182,13 @@
         <v>39.9</v>
       </c>
       <c r="C44" t="n">
-        <v>39.90801501795154</v>
+        <v>39.35409855654031</v>
       </c>
       <c r="D44" t="n">
-        <v>0.008015017951542802</v>
+        <v>-0.5459014434596909</v>
       </c>
       <c r="E44" t="n">
-        <v>6.424051276355337e-05</v>
+        <v>0.2980083859713741</v>
       </c>
     </row>
     <row r="45">
@@ -1199,13 +1199,13 @@
         <v>40.1</v>
       </c>
       <c r="C45" t="n">
-        <v>40.22409492804579</v>
+        <v>38.86405763729841</v>
       </c>
       <c r="D45" t="n">
-        <v>0.1240949280457855</v>
+        <v>-1.235942362701593</v>
       </c>
       <c r="E45" t="n">
-        <v>0.01539955116668868</v>
+        <v>1.527553523920396</v>
       </c>
     </row>
     <row r="46">
@@ -1216,13 +1216,13 @@
         <v>40.6</v>
       </c>
       <c r="C46" t="n">
-        <v>40.43504174471379</v>
+        <v>40.72005850740909</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.1649582552862157</v>
+        <v>0.120058507409091</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0272112259870723</v>
+        <v>0.01441404520129875</v>
       </c>
     </row>
     <row r="47">
@@ -1233,13 +1233,13 @@
         <v>40.9</v>
       </c>
       <c r="C47" t="n">
-        <v>40.86343976809695</v>
+        <v>40.33889647309663</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.0365602319030458</v>
+        <v>-0.5611035269033735</v>
       </c>
       <c r="E47" t="n">
-        <v>0.001336650556804488</v>
+        <v>0.3148371679034048</v>
       </c>
     </row>
     <row r="48">
@@ -1250,13 +1250,13 @@
         <v>41.2</v>
       </c>
       <c r="C48" t="n">
-        <v>41.90692275597594</v>
+        <v>41.49086425991245</v>
       </c>
       <c r="D48" t="n">
-        <v>0.7069227559759383</v>
+        <v>0.2908642599124462</v>
       </c>
       <c r="E48" t="n">
-        <v>0.4997397829166161</v>
+        <v>0.08460201769441508</v>
       </c>
     </row>
     <row r="49">
@@ -1267,13 +1267,13 @@
         <v>41.5</v>
       </c>
       <c r="C49" t="n">
-        <v>41.24317792598858</v>
+        <v>40.97682577299953</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.2568220740114242</v>
+        <v>-0.5231742270004673</v>
       </c>
       <c r="E49" t="n">
-        <v>0.06595757769952945</v>
+        <v>0.2737112717975365</v>
       </c>
     </row>
     <row r="50">
@@ -1284,13 +1284,13 @@
         <v>41.8</v>
       </c>
       <c r="C50" t="n">
-        <v>41.00078940607578</v>
+        <v>40.88166307792684</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.7992105939242151</v>
+        <v>-0.9183369220731592</v>
       </c>
       <c r="E50" t="n">
-        <v>0.6387375734406967</v>
+        <v>0.8433427024428036</v>
       </c>
     </row>
     <row r="51">
@@ -1301,13 +1301,13 @@
         <v>42.2</v>
       </c>
       <c r="C51" t="n">
-        <v>41.77279972047515</v>
+        <v>43.04591084645946</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.427200279524854</v>
+        <v>0.8459108464594607</v>
       </c>
       <c r="E51" t="n">
-        <v>0.1825000788261134</v>
+        <v>0.7155651601577613</v>
       </c>
     </row>
     <row r="52">
@@ -1318,11 +1318,11 @@
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="n">
-        <v>-0.3819927554736218</v>
+        <v>1.599104404482389</v>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="n">
-        <v>11.96439922660567</v>
+        <v>14.53712046538722</v>
       </c>
     </row>
     <row r="53">
@@ -1335,7 +1335,7 @@
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="n">
-        <v>0.2392879845321135</v>
+        <v>0.2907424093077443</v>
       </c>
     </row>
   </sheetData>

--- a/full/sliding_window_results_window_6.xlsx
+++ b/full/sliding_window_results_window_6.xlsx
@@ -468,13 +468,13 @@
         <v>29.55</v>
       </c>
       <c r="C2" t="n">
-        <v>28.57952013099779</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.9704798690022152</v>
+        <v>-29.55</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9418311761385567</v>
+        <v>873.2025</v>
       </c>
     </row>
     <row r="3">
@@ -485,13 +485,13 @@
         <v>29.75</v>
       </c>
       <c r="C3" t="n">
-        <v>28.67122824177029</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.078771758229706</v>
+        <v>-29.75</v>
       </c>
       <c r="E3" t="n">
-        <v>1.163748506354012</v>
+        <v>885.0625</v>
       </c>
     </row>
     <row r="4">
@@ -502,13 +502,13 @@
         <v>29.84</v>
       </c>
       <c r="C4" t="n">
-        <v>29.59743991209871</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.2425600879012926</v>
+        <v>-29.84</v>
       </c>
       <c r="E4" t="n">
-        <v>0.05883539624268278</v>
+        <v>890.4256</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         <v>29.81</v>
       </c>
       <c r="C5" t="n">
-        <v>29.6366908951142</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.1733091048857993</v>
+        <v>-29.81</v>
       </c>
       <c r="E5" t="n">
-        <v>0.03003604583631699</v>
+        <v>888.6360999999999</v>
       </c>
     </row>
     <row r="6">
@@ -536,13 +536,13 @@
         <v>29.92</v>
       </c>
       <c r="C6" t="n">
-        <v>30.58061590239709</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6606159023970903</v>
+        <v>-29.92</v>
       </c>
       <c r="E6" t="n">
-        <v>0.436413370499922</v>
+        <v>895.2064000000001</v>
       </c>
     </row>
     <row r="7">
@@ -553,13 +553,13 @@
         <v>29.98</v>
       </c>
       <c r="C7" t="n">
-        <v>29.82469881156703</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.1553011884329685</v>
+        <v>-29.98</v>
       </c>
       <c r="E7" t="n">
-        <v>0.02411845912869238</v>
+        <v>898.8004000000001</v>
       </c>
     </row>
     <row r="8">
@@ -570,13 +570,13 @@
         <v>30.04</v>
       </c>
       <c r="C8" t="n">
-        <v>29.86649522397828</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.1735047760217228</v>
+        <v>-30.04</v>
       </c>
       <c r="E8" t="n">
-        <v>0.03010390730234818</v>
+        <v>902.4015999999999</v>
       </c>
     </row>
     <row r="9">
@@ -587,13 +587,13 @@
         <v>30.21</v>
       </c>
       <c r="C9" t="n">
-        <v>29.5467588182582</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.6632411817418031</v>
+        <v>-30.21</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4398888651582635</v>
+        <v>912.6441000000001</v>
       </c>
     </row>
     <row r="10">
@@ -604,13 +604,13 @@
         <v>30.22</v>
       </c>
       <c r="C10" t="n">
-        <v>29.47703058454815</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.7429694154518458</v>
+        <v>-30.22</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5520035522968575</v>
+        <v>913.2483999999999</v>
       </c>
     </row>
     <row r="11">
@@ -621,13 +621,13 @@
         <v>30.38</v>
       </c>
       <c r="C11" t="n">
-        <v>30.10207820522231</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.2779217947776935</v>
+        <v>-30.38</v>
       </c>
       <c r="E11" t="n">
-        <v>0.07724052401245439</v>
+        <v>922.9444</v>
       </c>
     </row>
     <row r="12">
@@ -638,13 +638,13 @@
         <v>30.44</v>
       </c>
       <c r="C12" t="n">
-        <v>30.29965999457025</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.1403400054297528</v>
+        <v>-30.44</v>
       </c>
       <c r="E12" t="n">
-        <v>0.01969531712402304</v>
+        <v>926.5936</v>
       </c>
     </row>
     <row r="13">
@@ -655,13 +655,13 @@
         <v>30.48</v>
       </c>
       <c r="C13" t="n">
-        <v>30.38494317377079</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.0950568262292073</v>
+        <v>-30.48</v>
       </c>
       <c r="E13" t="n">
-        <v>0.009035800212769713</v>
+        <v>929.0304</v>
       </c>
     </row>
     <row r="14">
@@ -672,13 +672,13 @@
         <v>30.69</v>
       </c>
       <c r="C14" t="n">
-        <v>31.00990344420783</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3199034442078279</v>
+        <v>-30.69</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1023382136160309</v>
+        <v>941.8761000000001</v>
       </c>
     </row>
     <row r="15">
@@ -689,13 +689,13 @@
         <v>30.75</v>
       </c>
       <c r="C15" t="n">
-        <v>30.85958032394306</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1095803239430566</v>
+        <v>-30.75</v>
       </c>
       <c r="E15" t="n">
-        <v>0.01200784739546523</v>
+        <v>945.5625</v>
       </c>
     </row>
     <row r="16">
@@ -706,13 +706,13 @@
         <v>30.94</v>
       </c>
       <c r="C16" t="n">
-        <v>31.66238512725587</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7223851272558726</v>
+        <v>-30.94</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5218402720804832</v>
+        <v>957.2836000000001</v>
       </c>
     </row>
     <row r="17">
@@ -723,13 +723,13 @@
         <v>30.95</v>
       </c>
       <c r="C17" t="n">
-        <v>31.16380129947005</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2138012994700524</v>
+        <v>-30.95</v>
       </c>
       <c r="E17" t="n">
-        <v>0.04571099565508305</v>
+        <v>957.9024999999999</v>
       </c>
     </row>
     <row r="18">
@@ -740,13 +740,13 @@
         <v>31.02</v>
       </c>
       <c r="C18" t="n">
-        <v>31.6155670600489</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5955670600488965</v>
+        <v>-31.02</v>
       </c>
       <c r="E18" t="n">
-        <v>0.3547001230152859</v>
+        <v>962.2404</v>
       </c>
     </row>
     <row r="19">
@@ -757,13 +757,13 @@
         <v>31.12</v>
       </c>
       <c r="C19" t="n">
-        <v>31.7453758065703</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6253758065703003</v>
+        <v>-31.12</v>
       </c>
       <c r="E19" t="n">
-        <v>0.3910948994434537</v>
+        <v>968.4544000000001</v>
       </c>
     </row>
     <row r="20">
@@ -774,13 +774,13 @@
         <v>31.28</v>
       </c>
       <c r="C20" t="n">
-        <v>32.14713058137266</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8671305813726562</v>
+        <v>-31.28</v>
       </c>
       <c r="E20" t="n">
-        <v>0.7519154451516807</v>
+        <v>978.4384000000001</v>
       </c>
     </row>
     <row r="21">
@@ -791,13 +791,13 @@
         <v>31.38</v>
       </c>
       <c r="C21" t="n">
-        <v>32.27928656509563</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8992865650956325</v>
+        <v>-31.38</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8087163261615014</v>
+        <v>984.7044</v>
       </c>
     </row>
     <row r="22">
@@ -808,13 +808,13 @@
         <v>31.58</v>
       </c>
       <c r="C22" t="n">
-        <v>32.65176280025499</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>1.071762800254987</v>
+        <v>-31.58</v>
       </c>
       <c r="E22" t="n">
-        <v>1.148675500010412</v>
+        <v>997.2963999999999</v>
       </c>
     </row>
     <row r="23">
@@ -825,13 +825,13 @@
         <v>31.65</v>
       </c>
       <c r="C23" t="n">
-        <v>31.76681332661224</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1168133266122453</v>
+        <v>-31.65</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0136453532742191</v>
+        <v>1001.7225</v>
       </c>
     </row>
     <row r="24">
@@ -842,13 +842,13 @@
         <v>31.88</v>
       </c>
       <c r="C24" t="n">
-        <v>32.6140378892034</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0.7340378892034032</v>
+        <v>-31.88</v>
       </c>
       <c r="E24" t="n">
-        <v>0.5388116227861877</v>
+        <v>1016.3344</v>
       </c>
     </row>
     <row r="25">
@@ -859,13 +859,13 @@
         <v>32.28</v>
       </c>
       <c r="C25" t="n">
-        <v>32.57469371711884</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0.2946937171188395</v>
+        <v>-32.28</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0868443869093186</v>
+        <v>1041.9984</v>
       </c>
     </row>
     <row r="26">
@@ -876,13 +876,13 @@
         <v>32.45</v>
       </c>
       <c r="C26" t="n">
-        <v>32.5088995152526</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0.05889951525259818</v>
+        <v>-32.45</v>
       </c>
       <c r="E26" t="n">
-        <v>0.003469152896991045</v>
+        <v>1053.0025</v>
       </c>
     </row>
     <row r="27">
@@ -893,13 +893,13 @@
         <v>32.85</v>
       </c>
       <c r="C27" t="n">
-        <v>33.74876072472798</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0.8987607247279783</v>
+        <v>-32.85</v>
       </c>
       <c r="E27" t="n">
-        <v>0.8077708403135608</v>
+        <v>1079.1225</v>
       </c>
     </row>
     <row r="28">
@@ -910,13 +910,13 @@
         <v>32.9</v>
       </c>
       <c r="C28" t="n">
-        <v>32.88600813751637</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.01399186248362838</v>
+        <v>-32.9</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0001957722157607674</v>
+        <v>1082.41</v>
       </c>
     </row>
     <row r="29">
@@ -927,13 +927,13 @@
         <v>33.1</v>
       </c>
       <c r="C29" t="n">
-        <v>33.20449818271961</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0.1044981827196096</v>
+        <v>-33.1</v>
       </c>
       <c r="E29" t="n">
-        <v>0.01091987019170092</v>
+        <v>1095.61</v>
       </c>
     </row>
     <row r="30">
@@ -944,13 +944,13 @@
         <v>33.4</v>
       </c>
       <c r="C30" t="n">
-        <v>33.42834121720522</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0.02834121720521665</v>
+        <v>-33.4</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0008032245926732683</v>
+        <v>1115.56</v>
       </c>
     </row>
     <row r="31">
@@ -961,13 +961,13 @@
         <v>33.7</v>
       </c>
       <c r="C31" t="n">
-        <v>33.89077717024098</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0.1907771702409775</v>
+        <v>-33.7</v>
       </c>
       <c r="E31" t="n">
-        <v>0.03639592868515491</v>
+        <v>1135.69</v>
       </c>
     </row>
     <row r="32">
@@ -978,13 +978,13 @@
         <v>34.1</v>
       </c>
       <c r="C32" t="n">
-        <v>34.54106070738451</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0.4410607073845085</v>
+        <v>-34.1</v>
       </c>
       <c r="E32" t="n">
-        <v>0.1945345475985231</v>
+        <v>1162.81</v>
       </c>
     </row>
     <row r="33">
@@ -995,13 +995,13 @@
         <v>34.4</v>
       </c>
       <c r="C33" t="n">
-        <v>34.74961127379486</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0.3496112737948565</v>
+        <v>-34.4</v>
       </c>
       <c r="E33" t="n">
-        <v>0.1222280427644621</v>
+        <v>1183.36</v>
       </c>
     </row>
     <row r="34">
@@ -1012,13 +1012,13 @@
         <v>34.9</v>
       </c>
       <c r="C34" t="n">
-        <v>35.1305863906522</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0.2305863906522063</v>
+        <v>-34.9</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0531700835540119</v>
+        <v>1218.01</v>
       </c>
     </row>
     <row r="35">
@@ -1029,13 +1029,13 @@
         <v>35.3</v>
       </c>
       <c r="C35" t="n">
-        <v>35.22267578619451</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.07732421380548971</v>
+        <v>-35.3</v>
       </c>
       <c r="E35" t="n">
-        <v>0.005979034040637085</v>
+        <v>1246.09</v>
       </c>
     </row>
     <row r="36">
@@ -1046,13 +1046,13 @@
         <v>35.7</v>
       </c>
       <c r="C36" t="n">
-        <v>35.62207203569853</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.0779279643014732</v>
+        <v>-35.7</v>
       </c>
       <c r="E36" t="n">
-        <v>0.006072767620171681</v>
+        <v>1274.49</v>
       </c>
     </row>
     <row r="37">
@@ -1063,13 +1063,13 @@
         <v>36.3</v>
       </c>
       <c r="C37" t="n">
-        <v>36.02181200994595</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.2781879900540503</v>
+        <v>-36.3</v>
       </c>
       <c r="E37" t="n">
-        <v>0.07738855781031237</v>
+        <v>1317.69</v>
       </c>
     </row>
     <row r="38">
@@ -1080,13 +1080,13 @@
         <v>36.8</v>
       </c>
       <c r="C38" t="n">
-        <v>36.27792433010931</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.5220756698906825</v>
+        <v>-36.8</v>
       </c>
       <c r="E38" t="n">
-        <v>0.2725630050918049</v>
+        <v>1354.24</v>
       </c>
     </row>
     <row r="39">
@@ -1097,13 +1097,13 @@
         <v>37.3</v>
       </c>
       <c r="C39" t="n">
-        <v>37.04261576698061</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.257384233019387</v>
+        <v>-37.3</v>
       </c>
       <c r="E39" t="n">
-        <v>0.06624664340697808</v>
+        <v>1391.29</v>
       </c>
     </row>
     <row r="40">
@@ -1114,13 +1114,13 @@
         <v>37.9</v>
       </c>
       <c r="C40" t="n">
-        <v>38.30471393433049</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0.4047139343304877</v>
+        <v>-37.9</v>
       </c>
       <c r="E40" t="n">
-        <v>0.1637933686412623</v>
+        <v>1436.41</v>
       </c>
     </row>
     <row r="41">
@@ -1131,13 +1131,13 @@
         <v>38.5</v>
       </c>
       <c r="C41" t="n">
-        <v>38.64947879644042</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0.1494787964404196</v>
+        <v>-38.5</v>
       </c>
       <c r="E41" t="n">
-        <v>0.02234391058527641</v>
+        <v>1482.25</v>
       </c>
     </row>
     <row r="42">
@@ -1148,13 +1148,13 @@
         <v>38.9</v>
       </c>
       <c r="C42" t="n">
-        <v>39.06540666585484</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0.1654066658548459</v>
+        <v>-38.9</v>
       </c>
       <c r="E42" t="n">
-        <v>0.02735936510921664</v>
+        <v>1513.21</v>
       </c>
     </row>
     <row r="43">
@@ -1165,13 +1165,13 @@
         <v>39.4</v>
       </c>
       <c r="C43" t="n">
-        <v>39.21398879234383</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.186011207656172</v>
+        <v>-39.4</v>
       </c>
       <c r="E43" t="n">
-        <v>0.03460016937370752</v>
+        <v>1552.36</v>
       </c>
     </row>
     <row r="44">
@@ -1182,13 +1182,13 @@
         <v>39.9</v>
       </c>
       <c r="C44" t="n">
-        <v>39.35409855654031</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.5459014434596909</v>
+        <v>-39.9</v>
       </c>
       <c r="E44" t="n">
-        <v>0.2980083859713741</v>
+        <v>1592.01</v>
       </c>
     </row>
     <row r="45">
@@ -1199,13 +1199,13 @@
         <v>40.1</v>
       </c>
       <c r="C45" t="n">
-        <v>38.86405763729841</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>-1.235942362701593</v>
+        <v>-40.1</v>
       </c>
       <c r="E45" t="n">
-        <v>1.527553523920396</v>
+        <v>1608.01</v>
       </c>
     </row>
     <row r="46">
@@ -1216,13 +1216,13 @@
         <v>40.6</v>
       </c>
       <c r="C46" t="n">
-        <v>40.72005850740909</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0.120058507409091</v>
+        <v>-40.6</v>
       </c>
       <c r="E46" t="n">
-        <v>0.01441404520129875</v>
+        <v>1648.36</v>
       </c>
     </row>
     <row r="47">
@@ -1233,13 +1233,13 @@
         <v>40.9</v>
       </c>
       <c r="C47" t="n">
-        <v>40.33889647309663</v>
+        <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.5611035269033735</v>
+        <v>-40.9</v>
       </c>
       <c r="E47" t="n">
-        <v>0.3148371679034048</v>
+        <v>1672.81</v>
       </c>
     </row>
     <row r="48">
@@ -1250,13 +1250,13 @@
         <v>41.2</v>
       </c>
       <c r="C48" t="n">
-        <v>41.49086425991245</v>
+        <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>0.2908642599124462</v>
+        <v>-41.2</v>
       </c>
       <c r="E48" t="n">
-        <v>0.08460201769441508</v>
+        <v>1697.44</v>
       </c>
     </row>
     <row r="49">
@@ -1267,13 +1267,13 @@
         <v>41.5</v>
       </c>
       <c r="C49" t="n">
-        <v>40.97682577299953</v>
+        <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.5231742270004673</v>
+        <v>-41.5</v>
       </c>
       <c r="E49" t="n">
-        <v>0.2737112717975365</v>
+        <v>1722.25</v>
       </c>
     </row>
     <row r="50">
@@ -1284,13 +1284,13 @@
         <v>41.8</v>
       </c>
       <c r="C50" t="n">
-        <v>40.88166307792684</v>
+        <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.9183369220731592</v>
+        <v>-41.8</v>
       </c>
       <c r="E50" t="n">
-        <v>0.8433427024428036</v>
+        <v>1747.24</v>
       </c>
     </row>
     <row r="51">
@@ -1301,13 +1301,13 @@
         <v>42.2</v>
       </c>
       <c r="C51" t="n">
-        <v>43.04591084645946</v>
+        <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>0.8459108464594607</v>
+        <v>-42.2</v>
       </c>
       <c r="E51" t="n">
-        <v>0.7155651601577613</v>
+        <v>1780.84</v>
       </c>
     </row>
     <row r="52">
@@ -1318,11 +1318,11 @@
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="n">
-        <v>1.599104404482389</v>
+        <v>-1702.24</v>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="n">
-        <v>14.53712046538722</v>
+        <v>58754.575</v>
       </c>
     </row>
     <row r="53">
@@ -1335,7 +1335,7 @@
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="n">
-        <v>0.2907424093077443</v>
+        <v>1175.0915</v>
       </c>
     </row>
   </sheetData>

--- a/full/sliding_window_results_window_6.xlsx
+++ b/full/sliding_window_results_window_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,234 +462,880 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.23553991317749</v>
+        <v>29.55</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.244846224784851</v>
+        <v>29.55056571960449</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.00930631160736084</v>
+        <v>0.0005657196044950297</v>
       </c>
       <c r="E2" t="n">
-        <v>8.660743333166465e-05</v>
+        <v>3.200386709100128e-07</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.232268095016479</v>
+        <v>29.75</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.227279543876648</v>
+        <v>29.76381492614746</v>
       </c>
       <c r="D3" t="n">
-        <v>0.004988551139831543</v>
+        <v>0.01381492614746094</v>
       </c>
       <c r="E3" t="n">
-        <v>2.488564314262476e-05</v>
+        <v>0.0001908521844597999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="B4" t="n">
-        <v>-1.230795860290527</v>
+        <v>29.84</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.229291558265686</v>
+        <v>29.8422679901123</v>
       </c>
       <c r="D4" t="n">
-        <v>0.001504302024841309</v>
+        <v>0.002267990112301277</v>
       </c>
       <c r="E4" t="n">
-        <v>2.262924681417644e-06</v>
+        <v>5.143779149496358e-06</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="B5" t="n">
-        <v>-1.231286525726318</v>
+        <v>29.81</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.228988409042358</v>
+        <v>29.76718711853027</v>
       </c>
       <c r="D5" t="n">
-        <v>0.002298116683959961</v>
+        <v>-0.04281288146972884</v>
       </c>
       <c r="E5" t="n">
-        <v>5.281340236251708e-06</v>
+        <v>0.001832942819741051</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="B6" t="n">
-        <v>-1.229487061500549</v>
+        <v>29.92</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.216321587562561</v>
+        <v>29.97953605651855</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01316547393798828</v>
+        <v>0.05953605651855298</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0001733297103783116</v>
+        <v>0.003544542025780335</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="B7" t="n">
-        <v>-1.228505492210388</v>
+        <v>29.98</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.221191048622131</v>
+        <v>29.99639701843262</v>
       </c>
       <c r="D7" t="n">
-        <v>0.007314443588256836</v>
+        <v>0.01639701843261321</v>
       </c>
       <c r="E7" t="n">
-        <v>5.350108403945342e-05</v>
+        <v>0.0002688622134794573</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="B8" t="n">
-        <v>-1.227523922920227</v>
+        <v>30.03999999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.22611939907074</v>
+        <v>30.02483940124512</v>
       </c>
       <c r="D8" t="n">
-        <v>0.001404523849487305</v>
+        <v>-0.01516059875487485</v>
       </c>
       <c r="E8" t="n">
-        <v>1.972687186935218e-06</v>
+        <v>0.000229843754606313</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="B9" t="n">
-        <v>-1.224742889404297</v>
+        <v>30.21000000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>-1.222527265548706</v>
+        <v>30.0917797088623</v>
       </c>
       <c r="D9" t="n">
-        <v>0.00221562385559082</v>
+        <v>-0.1182202911377033</v>
       </c>
       <c r="E9" t="n">
-        <v>4.908989012619713e-06</v>
+        <v>0.01397603723668332</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="B10" t="n">
-        <v>-1.224579334259033</v>
+        <v>30.22</v>
       </c>
       <c r="C10" t="n">
-        <v>-1.234763503074646</v>
+        <v>30.12257194519043</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.01018416881561279</v>
+        <v>-0.09742805480956918</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0001037172914948314</v>
+        <v>0.009492225863976415</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="B11" t="n">
-        <v>-1.221961855888367</v>
+        <v>30.38</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.221513152122498</v>
+        <v>30.36003684997559</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0004487037658691406</v>
+        <v>-0.01996315002440952</v>
       </c>
       <c r="E11" t="n">
-        <v>2.013350695051486e-07</v>
+        <v>0.0003985273588970816</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="B12" t="n">
-        <v>-1.220980286598206</v>
+        <v>30.44</v>
       </c>
       <c r="C12" t="n">
-        <v>-1.229136109352112</v>
+        <v>30.48159599304199</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.00815582275390625</v>
+        <v>0.04159599304199446</v>
       </c>
       <c r="E12" t="n">
-        <v>6.651744479313493e-05</v>
+        <v>0.001730226637149652</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
+        <v>38</v>
+      </c>
+      <c r="B13" t="n">
+        <v>30.48</v>
+      </c>
+      <c r="C13" t="n">
+        <v>30.5484447479248</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.06844474792480071</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.004684683518489511</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>37</v>
+      </c>
+      <c r="B14" t="n">
+        <v>30.69</v>
+      </c>
+      <c r="C14" t="n">
+        <v>30.70622825622559</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.01622825622558821</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.0002633563001233425</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>36</v>
+      </c>
+      <c r="B15" t="n">
+        <v>30.75</v>
+      </c>
+      <c r="C15" t="n">
+        <v>30.79121208190918</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.04121208190917969</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.001698435695288936</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>35</v>
+      </c>
+      <c r="B16" t="n">
+        <v>30.94</v>
+      </c>
+      <c r="C16" t="n">
+        <v>30.88385581970215</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-0.05614418029784929</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.003152168981317408</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>34</v>
+      </c>
+      <c r="B17" t="n">
+        <v>30.95</v>
+      </c>
+      <c r="C17" t="n">
+        <v>30.98505973815918</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.03505973815917685</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.001229185239790041</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>33</v>
+      </c>
+      <c r="B18" t="n">
+        <v>31.02</v>
+      </c>
+      <c r="C18" t="n">
+        <v>31.0648250579834</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.04482505798340242</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.002009285823215389</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>32</v>
+      </c>
+      <c r="B19" t="n">
+        <v>31.12</v>
+      </c>
+      <c r="C19" t="n">
+        <v>31.22900199890137</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.1090019989013626</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.01188143576449266</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>31</v>
+      </c>
+      <c r="B20" t="n">
+        <v>31.28</v>
+      </c>
+      <c r="C20" t="n">
+        <v>31.2625789642334</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-0.0174210357666027</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.0003034924871812505</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>30</v>
+      </c>
+      <c r="B21" t="n">
+        <v>31.38</v>
+      </c>
+      <c r="C21" t="n">
+        <v>31.3514232635498</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-0.02857673645019077</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.0008166298661436615</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>29</v>
+      </c>
+      <c r="B22" t="n">
+        <v>31.58</v>
+      </c>
+      <c r="C22" t="n">
+        <v>31.50304985046387</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-0.07695014953613111</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.005921325513632938</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>28</v>
+      </c>
+      <c r="B23" t="n">
+        <v>31.65000000000001</v>
+      </c>
+      <c r="C23" t="n">
+        <v>31.64421653747559</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-0.005783462524419747</v>
+      </c>
+      <c r="E23" t="n">
+        <v>3.344843877136763e-05</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>27</v>
+      </c>
+      <c r="B24" t="n">
+        <v>31.88</v>
+      </c>
+      <c r="C24" t="n">
+        <v>32.07152938842773</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.1915293884277389</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.03668350663150369</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>26</v>
+      </c>
+      <c r="B25" t="n">
+        <v>32.28</v>
+      </c>
+      <c r="C25" t="n">
+        <v>32.3404426574707</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.06044265747070199</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.003653314842120607</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>32.45</v>
+      </c>
+      <c r="C26" t="n">
+        <v>32.29537582397461</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-0.1546241760253935</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.02390863581153186</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>24</v>
+      </c>
+      <c r="B27" t="n">
+        <v>32.84999999999999</v>
+      </c>
+      <c r="C27" t="n">
+        <v>32.81863021850586</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-0.03136978149413494</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.000984063190989771</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>23</v>
+      </c>
+      <c r="B28" t="n">
+        <v>32.90000000000001</v>
+      </c>
+      <c r="C28" t="n">
+        <v>32.9389762878418</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.03897628784179119</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.00151915101392616</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>22</v>
+      </c>
+      <c r="B29" t="n">
+        <v>33.09999999999999</v>
+      </c>
+      <c r="C29" t="n">
+        <v>33.03149795532227</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-0.06850204467772869</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.004692530125029537</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>21</v>
+      </c>
+      <c r="B30" t="n">
+        <v>33.40000000000001</v>
+      </c>
+      <c r="C30" t="n">
+        <v>33.37972640991211</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-0.02027359008789631</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.0004110184550520475</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>20</v>
+      </c>
+      <c r="B31" t="n">
+        <v>33.7</v>
+      </c>
+      <c r="C31" t="n">
+        <v>33.68365097045898</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-0.01634902954101847</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.0002672907669330945</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>19</v>
+      </c>
+      <c r="B32" t="n">
+        <v>34.09999999999999</v>
+      </c>
+      <c r="C32" t="n">
+        <v>34.13930892944336</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.03930892944336506</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.001545191933983452</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>18</v>
+      </c>
+      <c r="B33" t="n">
+        <v>34.40000000000001</v>
+      </c>
+      <c r="C33" t="n">
+        <v>34.54682540893555</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.1468254089355412</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.0215577007090889</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>17</v>
+      </c>
+      <c r="B34" t="n">
+        <v>34.90000000000001</v>
+      </c>
+      <c r="C34" t="n">
+        <v>34.93082809448242</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.03082809448241619</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.0009503714094167795</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>16</v>
+      </c>
+      <c r="B35" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="C35" t="n">
+        <v>35.31567764282227</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.01567764282226847</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.000245788484462626</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>15</v>
+      </c>
+      <c r="B36" t="n">
+        <v>35.7</v>
+      </c>
+      <c r="C36" t="n">
+        <v>35.76073837280273</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.06073837280273153</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.003689149930723598</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>14</v>
+      </c>
+      <c r="B37" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="C37" t="n">
+        <v>36.28705215454102</v>
+      </c>
+      <c r="D37" t="n">
+        <v>-0.01294784545898153</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.0001676467020296687</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>13</v>
+      </c>
+      <c r="B38" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36.55117416381836</v>
+      </c>
+      <c r="D38" t="n">
+        <v>-0.2488258361816378</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.06191429675149124</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>12</v>
+      </c>
+      <c r="B39" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37.23364639282227</v>
+      </c>
+      <c r="D39" t="n">
+        <v>-0.06635360717773153</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.004402801185496705</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>11</v>
+      </c>
+      <c r="B40" t="n">
+        <v>37.90000000000001</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38.14764785766602</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.2476478576660099</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.06132946140656432</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>10</v>
+      </c>
+      <c r="B41" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="C41" t="n">
+        <v>38.34243392944336</v>
+      </c>
+      <c r="D41" t="n">
+        <v>-0.1575660705566406</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.02482706659066025</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>9</v>
+      </c>
+      <c r="B42" t="n">
+        <v>38.90000000000001</v>
+      </c>
+      <c r="C42" t="n">
+        <v>38.82511520385742</v>
+      </c>
+      <c r="D42" t="n">
+        <v>-0.07488479614258381</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.005607732693316335</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>8</v>
+      </c>
+      <c r="B43" t="n">
+        <v>39.40000000000001</v>
+      </c>
+      <c r="C43" t="n">
+        <v>39.43725967407227</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.03725967407225994</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.00138828331197104</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>7</v>
+      </c>
+      <c r="B44" t="n">
+        <v>39.90000000000001</v>
+      </c>
+      <c r="C44" t="n">
+        <v>39.99524307250977</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.09524307250975994</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.00907124286109939</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>6</v>
+      </c>
+      <c r="B45" t="n">
+        <v>40.09999999999999</v>
+      </c>
+      <c r="C45" t="n">
+        <v>39.99312210083008</v>
+      </c>
+      <c r="D45" t="n">
+        <v>-0.1068778991699162</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.01142288533097477</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>5</v>
+      </c>
+      <c r="B46" t="n">
+        <v>40.59999999999999</v>
+      </c>
+      <c r="C46" t="n">
+        <v>40.5468864440918</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-0.05311355590819744</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.002821049821213215</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>4</v>
+      </c>
+      <c r="B47" t="n">
+        <v>40.90000000000001</v>
+      </c>
+      <c r="C47" t="n">
+        <v>40.89860916137695</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-0.001390838623052559</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1.934432075374739e-06</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>3</v>
+      </c>
+      <c r="B48" t="n">
+        <v>41.20000000000001</v>
+      </c>
+      <c r="C48" t="n">
+        <v>41.15071105957031</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-0.04928894042969745</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.002429399648682264</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>2</v>
+      </c>
+      <c r="B49" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="C49" t="n">
+        <v>41.34810638427734</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-0.1518936157226562</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.02307167049730197</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>1</v>
+      </c>
+      <c r="B50" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="C50" t="n">
+        <v>42.04648590087891</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.2464859008789091</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.0607552993320874</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
         <v>0</v>
       </c>
-      <c r="B13" t="n">
-        <v>-1.220325946807861</v>
-      </c>
-      <c r="C13" t="n">
-        <v>-1.22540545463562</v>
-      </c>
-      <c r="D13" t="n">
-        <v>-0.005079507827758789</v>
-      </c>
-      <c r="E13" t="n">
-        <v>2.580140062491409e-05</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="B51" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="C51" t="n">
+        <v>42.22655487060547</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.02655487060546591</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.0007051611528730373</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="n">
-        <v>0.0006139278411865234</v>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="n">
-        <v>0.0005489873583428562</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="n">
+        <v>-0.006254425048858536</v>
+      </c>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="n">
+        <v>0.4336866165636394</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
         <is>
           <t>MSE</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="n">
-        <v>4.574894774123095e-05</v>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="n">
+        <v>0.008673732331272787</v>
       </c>
     </row>
   </sheetData>

--- a/full/sliding_window_results_window_6.xlsx
+++ b/full/sliding_window_results_window_6.xlsx
@@ -468,13 +468,13 @@
         <v>29.55</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>30.36665211731184</v>
       </c>
       <c r="D2" t="n">
-        <v>-29.55</v>
+        <v>0.8166521173118433</v>
       </c>
       <c r="E2" t="n">
-        <v>873.2025</v>
+        <v>0.6669206807099166</v>
       </c>
     </row>
     <row r="3">
@@ -485,13 +485,13 @@
         <v>29.75</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>30.37306242910338</v>
       </c>
       <c r="D3" t="n">
-        <v>-29.75</v>
+        <v>0.6230624291033848</v>
       </c>
       <c r="E3" t="n">
-        <v>885.0625</v>
+        <v>0.3882067905602105</v>
       </c>
     </row>
     <row r="4">
@@ -502,13 +502,13 @@
         <v>29.84</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>29.99066224781861</v>
       </c>
       <c r="D4" t="n">
-        <v>-29.84</v>
+        <v>0.1506622478186053</v>
       </c>
       <c r="E4" t="n">
-        <v>890.4256</v>
+        <v>0.02269911291775483</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         <v>29.81</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>29.91958244196424</v>
       </c>
       <c r="D5" t="n">
-        <v>-29.81</v>
+        <v>0.1095824419642391</v>
       </c>
       <c r="E5" t="n">
-        <v>888.6360999999999</v>
+        <v>0.01200831158684582</v>
       </c>
     </row>
     <row r="6">
@@ -536,13 +536,13 @@
         <v>29.92</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>29.89798823353122</v>
       </c>
       <c r="D6" t="n">
-        <v>-29.92</v>
+        <v>-0.02201176646878622</v>
       </c>
       <c r="E6" t="n">
-        <v>895.2064000000001</v>
+        <v>0.0004845178630763814</v>
       </c>
     </row>
     <row r="7">
@@ -553,13 +553,13 @@
         <v>29.98</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>30.09988692223648</v>
       </c>
       <c r="D7" t="n">
-        <v>-29.98</v>
+        <v>0.1198869222364785</v>
       </c>
       <c r="E7" t="n">
-        <v>898.8004000000001</v>
+        <v>0.01437287412333543</v>
       </c>
     </row>
     <row r="8">
@@ -570,13 +570,13 @@
         <v>30.04</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>30.16321211180252</v>
       </c>
       <c r="D8" t="n">
-        <v>-30.04</v>
+        <v>0.1232121118025233</v>
       </c>
       <c r="E8" t="n">
-        <v>902.4015999999999</v>
+        <v>0.01518122449483751</v>
       </c>
     </row>
     <row r="9">
@@ -587,13 +587,13 @@
         <v>30.21</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>30.29750673130906</v>
       </c>
       <c r="D9" t="n">
-        <v>-30.21</v>
+        <v>0.0875067313090625</v>
       </c>
       <c r="E9" t="n">
-        <v>912.6441000000001</v>
+        <v>0.00765742802439646</v>
       </c>
     </row>
     <row r="10">
@@ -604,13 +604,13 @@
         <v>30.22</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>30.44672696430774</v>
       </c>
       <c r="D10" t="n">
-        <v>-30.22</v>
+        <v>0.226726964307737</v>
       </c>
       <c r="E10" t="n">
-        <v>913.2483999999999</v>
+        <v>0.05140511634420183</v>
       </c>
     </row>
     <row r="11">
@@ -621,13 +621,13 @@
         <v>30.38</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>30.29502784300016</v>
       </c>
       <c r="D11" t="n">
-        <v>-30.38</v>
+        <v>-0.08497215699984295</v>
       </c>
       <c r="E11" t="n">
-        <v>922.9444</v>
+        <v>0.00722026746520596</v>
       </c>
     </row>
     <row r="12">
@@ -638,13 +638,13 @@
         <v>30.44</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>30.3556783217689</v>
       </c>
       <c r="D12" t="n">
-        <v>-30.44</v>
+        <v>-0.08432167823110248</v>
       </c>
       <c r="E12" t="n">
-        <v>926.5936</v>
+        <v>0.007110145419709582</v>
       </c>
     </row>
     <row r="13">
@@ -655,13 +655,13 @@
         <v>30.48</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>30.53438401314706</v>
       </c>
       <c r="D13" t="n">
-        <v>-30.48</v>
+        <v>0.05438401314706098</v>
       </c>
       <c r="E13" t="n">
-        <v>929.0304</v>
+        <v>0.002957620885979702</v>
       </c>
     </row>
     <row r="14">
@@ -672,13 +672,13 @@
         <v>30.69</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>30.63601958917854</v>
       </c>
       <c r="D14" t="n">
-        <v>-30.69</v>
+        <v>-0.05398041082146321</v>
       </c>
       <c r="E14" t="n">
-        <v>941.8761000000001</v>
+        <v>0.002913884752453942</v>
       </c>
     </row>
     <row r="15">
@@ -689,13 +689,13 @@
         <v>30.75</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>30.17980980881382</v>
       </c>
       <c r="D15" t="n">
-        <v>-30.75</v>
+        <v>-0.5701901911861782</v>
       </c>
       <c r="E15" t="n">
-        <v>945.5625</v>
+        <v>0.3251168541249305</v>
       </c>
     </row>
     <row r="16">
@@ -706,13 +706,13 @@
         <v>30.94</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>30.30393750451478</v>
       </c>
       <c r="D16" t="n">
-        <v>-30.94</v>
+        <v>-0.6360624954852234</v>
       </c>
       <c r="E16" t="n">
-        <v>957.2836000000001</v>
+        <v>0.4045754981628898</v>
       </c>
     </row>
     <row r="17">
@@ -723,13 +723,13 @@
         <v>30.95</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>30.58400968609432</v>
       </c>
       <c r="D17" t="n">
-        <v>-30.95</v>
+        <v>-0.3659903139056802</v>
       </c>
       <c r="E17" t="n">
-        <v>957.9024999999999</v>
+        <v>0.1339489098727783</v>
       </c>
     </row>
     <row r="18">
@@ -740,13 +740,13 @@
         <v>31.02</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>30.87614945704727</v>
       </c>
       <c r="D18" t="n">
-        <v>-31.02</v>
+        <v>-0.1438505429527304</v>
       </c>
       <c r="E18" t="n">
-        <v>962.2404</v>
+        <v>0.02069297870779532</v>
       </c>
     </row>
     <row r="19">
@@ -757,13 +757,13 @@
         <v>31.12</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>31.1134232730596</v>
       </c>
       <c r="D19" t="n">
-        <v>-31.12</v>
+        <v>-0.006576726940398459</v>
       </c>
       <c r="E19" t="n">
-        <v>968.4544000000001</v>
+        <v>4.325333724856287e-05</v>
       </c>
     </row>
     <row r="20">
@@ -774,13 +774,13 @@
         <v>31.28</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>31.16860810802609</v>
       </c>
       <c r="D20" t="n">
-        <v>-31.28</v>
+        <v>-0.1113918919739092</v>
       </c>
       <c r="E20" t="n">
-        <v>978.4384000000001</v>
+        <v>0.01240815359752706</v>
       </c>
     </row>
     <row r="21">
@@ -791,13 +791,13 @@
         <v>31.38</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>31.33760770974518</v>
       </c>
       <c r="D21" t="n">
-        <v>-31.38</v>
+        <v>-0.04239229025482061</v>
       </c>
       <c r="E21" t="n">
-        <v>984.7044</v>
+        <v>0.001797106273048958</v>
       </c>
     </row>
     <row r="22">
@@ -808,13 +808,13 @@
         <v>31.58</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>31.63689533939427</v>
       </c>
       <c r="D22" t="n">
-        <v>-31.58</v>
+        <v>0.05689533939427349</v>
       </c>
       <c r="E22" t="n">
-        <v>997.2963999999999</v>
+        <v>0.003237079644789569</v>
       </c>
     </row>
     <row r="23">
@@ -825,13 +825,13 @@
         <v>31.65</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>31.57125835059635</v>
       </c>
       <c r="D23" t="n">
-        <v>-31.65</v>
+        <v>-0.07874164940365347</v>
       </c>
       <c r="E23" t="n">
-        <v>1001.7225</v>
+        <v>0.006200247350807881</v>
       </c>
     </row>
     <row r="24">
@@ -842,13 +842,13 @@
         <v>31.88</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>31.902911412466</v>
       </c>
       <c r="D24" t="n">
-        <v>-31.88</v>
+        <v>0.02291141246600503</v>
       </c>
       <c r="E24" t="n">
-        <v>1016.3344</v>
+        <v>0.0005249328211874108</v>
       </c>
     </row>
     <row r="25">
@@ -859,13 +859,13 @@
         <v>32.28</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>32.27999587101024</v>
       </c>
       <c r="D25" t="n">
-        <v>-32.28</v>
+        <v>-4.128989758100943e-06</v>
       </c>
       <c r="E25" t="n">
-        <v>1041.9984</v>
+        <v>1.704855642250248e-11</v>
       </c>
     </row>
     <row r="26">
@@ -876,13 +876,13 @@
         <v>32.45</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>32.31492129653395</v>
       </c>
       <c r="D26" t="n">
-        <v>-32.45</v>
+        <v>-0.135078703466057</v>
       </c>
       <c r="E26" t="n">
-        <v>1053.0025</v>
+        <v>0.01824625613007096</v>
       </c>
     </row>
     <row r="27">
@@ -893,13 +893,13 @@
         <v>32.85</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>33.33681736660397</v>
       </c>
       <c r="D27" t="n">
-        <v>-32.85</v>
+        <v>0.4868173666039723</v>
       </c>
       <c r="E27" t="n">
-        <v>1079.1225</v>
+        <v>0.2369911484272264</v>
       </c>
     </row>
     <row r="28">
@@ -910,13 +910,13 @@
         <v>32.9</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>33.02364523339497</v>
       </c>
       <c r="D28" t="n">
-        <v>-32.9</v>
+        <v>0.1236452333949742</v>
       </c>
       <c r="E28" t="n">
-        <v>1082.41</v>
+        <v>0.01528814374129765</v>
       </c>
     </row>
     <row r="29">
@@ -927,13 +927,13 @@
         <v>33.1</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>33.37918762896857</v>
       </c>
       <c r="D29" t="n">
-        <v>-33.1</v>
+        <v>0.2791876289685646</v>
       </c>
       <c r="E29" t="n">
-        <v>1095.61</v>
+        <v>0.07794573216908891</v>
       </c>
     </row>
     <row r="30">
@@ -944,13 +944,13 @@
         <v>33.4</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>33.43665432956772</v>
       </c>
       <c r="D30" t="n">
-        <v>-33.4</v>
+        <v>0.03665432956772463</v>
       </c>
       <c r="E30" t="n">
-        <v>1115.56</v>
+        <v>0.001343539876059372</v>
       </c>
     </row>
     <row r="31">
@@ -961,13 +961,13 @@
         <v>33.7</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>33.98856141008333</v>
       </c>
       <c r="D31" t="n">
-        <v>-33.7</v>
+        <v>0.2885614100833251</v>
       </c>
       <c r="E31" t="n">
-        <v>1135.69</v>
+        <v>0.08326768738927694</v>
       </c>
     </row>
     <row r="32">
@@ -978,13 +978,13 @@
         <v>34.1</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>34.70679810123244</v>
       </c>
       <c r="D32" t="n">
-        <v>-34.1</v>
+        <v>0.6067981012324353</v>
       </c>
       <c r="E32" t="n">
-        <v>1162.81</v>
+        <v>0.3682039356592888</v>
       </c>
     </row>
     <row r="33">
@@ -995,13 +995,13 @@
         <v>34.4</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>34.64649225017088</v>
       </c>
       <c r="D33" t="n">
-        <v>-34.4</v>
+        <v>0.2464922501708813</v>
       </c>
       <c r="E33" t="n">
-        <v>1183.36</v>
+        <v>0.06075842939430432</v>
       </c>
     </row>
     <row r="34">
@@ -1012,13 +1012,13 @@
         <v>34.9</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>35.03841452557509</v>
       </c>
       <c r="D34" t="n">
-        <v>-34.9</v>
+        <v>0.1384145255750937</v>
       </c>
       <c r="E34" t="n">
-        <v>1218.01</v>
+        <v>0.01915858089017827</v>
       </c>
     </row>
     <row r="35">
@@ -1029,13 +1029,13 @@
         <v>35.3</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>34.9147971642647</v>
       </c>
       <c r="D35" t="n">
-        <v>-35.3</v>
+        <v>-0.3852028357352992</v>
       </c>
       <c r="E35" t="n">
-        <v>1246.09</v>
+        <v>0.1483812246585159</v>
       </c>
     </row>
     <row r="36">
@@ -1046,13 +1046,13 @@
         <v>35.7</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>35.13928856504177</v>
       </c>
       <c r="D36" t="n">
-        <v>-35.7</v>
+        <v>-0.5607114349582289</v>
       </c>
       <c r="E36" t="n">
-        <v>1274.49</v>
+        <v>0.3143973132929162</v>
       </c>
     </row>
     <row r="37">
@@ -1063,13 +1063,13 @@
         <v>36.3</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>35.700520038417</v>
       </c>
       <c r="D37" t="n">
-        <v>-36.3</v>
+        <v>-0.5994799615829933</v>
       </c>
       <c r="E37" t="n">
-        <v>1317.69</v>
+        <v>0.3593762243395471</v>
       </c>
     </row>
     <row r="38">
@@ -1080,13 +1080,13 @@
         <v>36.8</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>36.07152366051772</v>
       </c>
       <c r="D38" t="n">
-        <v>-36.8</v>
+        <v>-0.7284763394822775</v>
       </c>
       <c r="E38" t="n">
-        <v>1354.24</v>
+        <v>0.5306777771854985</v>
       </c>
     </row>
     <row r="39">
@@ -1097,13 +1097,13 @@
         <v>37.3</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>37.06429871258559</v>
       </c>
       <c r="D39" t="n">
-        <v>-37.3</v>
+        <v>-0.2357012874144075</v>
       </c>
       <c r="E39" t="n">
-        <v>1391.29</v>
+        <v>0.05555509688880915</v>
       </c>
     </row>
     <row r="40">
@@ -1114,13 +1114,13 @@
         <v>37.9</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>37.59373788371554</v>
       </c>
       <c r="D40" t="n">
-        <v>-37.9</v>
+        <v>-0.3062621162844579</v>
       </c>
       <c r="E40" t="n">
-        <v>1436.41</v>
+        <v>0.0937964838710348</v>
       </c>
     </row>
     <row r="41">
@@ -1131,13 +1131,13 @@
         <v>38.5</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>38.34942907022938</v>
       </c>
       <c r="D41" t="n">
-        <v>-38.5</v>
+        <v>-0.1505709297706233</v>
       </c>
       <c r="E41" t="n">
-        <v>1482.25</v>
+        <v>0.02267160489198996</v>
       </c>
     </row>
     <row r="42">
@@ -1148,13 +1148,13 @@
         <v>38.9</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>39.32514080133006</v>
       </c>
       <c r="D42" t="n">
-        <v>-38.9</v>
+        <v>0.425140801330059</v>
       </c>
       <c r="E42" t="n">
-        <v>1513.21</v>
+        <v>0.1807447009555647</v>
       </c>
     </row>
     <row r="43">
@@ -1165,13 +1165,13 @@
         <v>39.4</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>40.0991865390098</v>
       </c>
       <c r="D43" t="n">
-        <v>-39.4</v>
+        <v>0.6991865390098013</v>
       </c>
       <c r="E43" t="n">
-        <v>1552.36</v>
+        <v>0.4888618163325044</v>
       </c>
     </row>
     <row r="44">
@@ -1182,13 +1182,13 @@
         <v>39.9</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>40.5984031086222</v>
       </c>
       <c r="D44" t="n">
-        <v>-39.9</v>
+        <v>0.6984031086222018</v>
       </c>
       <c r="E44" t="n">
-        <v>1592.01</v>
+        <v>0.487766902133155</v>
       </c>
     </row>
     <row r="45">
@@ -1199,13 +1199,13 @@
         <v>40.1</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>40.20863638200954</v>
       </c>
       <c r="D45" t="n">
-        <v>-40.1</v>
+        <v>0.1086363820095357</v>
       </c>
       <c r="E45" t="n">
-        <v>1608.01</v>
+        <v>0.01180186349612178</v>
       </c>
     </row>
     <row r="46">
@@ -1216,13 +1216,13 @@
         <v>40.6</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>41.23139036539403</v>
       </c>
       <c r="D46" t="n">
-        <v>-40.6</v>
+        <v>0.6313903653940329</v>
       </c>
       <c r="E46" t="n">
-        <v>1648.36</v>
+        <v>0.3986537935124104</v>
       </c>
     </row>
     <row r="47">
@@ -1233,13 +1233,13 @@
         <v>40.9</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>41.46436510051771</v>
       </c>
       <c r="D47" t="n">
-        <v>-40.9</v>
+        <v>0.5643651005177119</v>
       </c>
       <c r="E47" t="n">
-        <v>1672.81</v>
+        <v>0.3185079666823671</v>
       </c>
     </row>
     <row r="48">
@@ -1250,13 +1250,13 @@
         <v>41.2</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>41.32579206646838</v>
       </c>
       <c r="D48" t="n">
-        <v>-41.2</v>
+        <v>0.125792066468378</v>
       </c>
       <c r="E48" t="n">
-        <v>1697.44</v>
+        <v>0.01582364398638484</v>
       </c>
     </row>
     <row r="49">
@@ -1267,13 +1267,13 @@
         <v>41.5</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>40.99730796859584</v>
       </c>
       <c r="D49" t="n">
-        <v>-41.5</v>
+        <v>-0.502692031404159</v>
       </c>
       <c r="E49" t="n">
-        <v>1722.25</v>
+        <v>0.2526992784372399</v>
       </c>
     </row>
     <row r="50">
@@ -1284,13 +1284,13 @@
         <v>41.8</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>41.2627089484069</v>
       </c>
       <c r="D50" t="n">
-        <v>-41.8</v>
+        <v>-0.537291051593094</v>
       </c>
       <c r="E50" t="n">
-        <v>1747.24</v>
+        <v>0.2886816741220128</v>
       </c>
     </row>
     <row r="51">
@@ -1301,13 +1301,13 @@
         <v>42.2</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>41.65376525386564</v>
       </c>
       <c r="D51" t="n">
-        <v>-42.2</v>
+        <v>-0.5462347461343668</v>
       </c>
       <c r="E51" t="n">
-        <v>1780.84</v>
+        <v>0.2983723978844762</v>
       </c>
     </row>
     <row r="52">
@@ -1318,11 +1318,11 @@
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="n">
-        <v>-1702.24</v>
+        <v>0.9627802583703939</v>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="n">
-        <v>58754.575</v>
+        <v>7.255656205405317</v>
       </c>
     </row>
     <row r="53">
@@ -1335,7 +1335,7 @@
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="n">
-        <v>1175.0915</v>
+        <v>0.1451131241081063</v>
       </c>
     </row>
   </sheetData>
